--- a/plots/classification rates.xlsx
+++ b/plots/classification rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachinbeepath/HolisticAI/DISS_CODE/MSc_Dissertation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D637F25-BF6F-2C4C-8F82-1A8897838951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AED1FD-7AC4-A54E-BC80-AB1A272F84B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DAC59FFA-D48A-F649-98CC-62A00804E31B}"/>
+    <workbookView xWindow="-4440" yWindow="-21020" windowWidth="30240" windowHeight="17180" xr2:uid="{DAC59FFA-D48A-F649-98CC-62A00804E31B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="103">
   <si>
     <t>TMR</t>
   </si>
@@ -297,15 +297,64 @@
   <si>
     <t>ProtectedAttribute</t>
   </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>EER</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SENet RFW NN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>LWO</t>
+  </si>
+  <si>
+    <t>AFT</t>
+  </si>
+  <si>
+    <t>Improved FMRRatio</t>
+  </si>
+  <si>
+    <t>Improved FNMRRatio</t>
+  </si>
+  <si>
+    <t>Improved OMRRatio</t>
+  </si>
+  <si>
+    <t>Improved AOD</t>
+  </si>
+  <si>
+    <t>DecreasedOverallAccuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -369,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -387,10 +436,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FE3357-A123-8049-92CE-D9B0D5EF0B7D}">
-  <dimension ref="A1:BF205"/>
+  <dimension ref="A1:BT213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,7 +791,7 @@
     <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" customWidth="1"/>
     <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -758,6 +811,7 @@
     <col min="48" max="48" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
@@ -765,7 +819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -810,36 +864,6 @@
       </c>
       <c r="Q2" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="AF2" t="s">
         <v>19</v>
@@ -949,36 +973,6 @@
         <f>((D3-D4)+(E3-E4))</f>
         <v>4.229887616106498E-2</v>
       </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1.0471703312663012</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0.91347142842245987</v>
-      </c>
-      <c r="W3" s="6">
-        <v>14.950328595445528</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0.40669243884312473</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1.5172477777069169</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>6.4845738192761598E-2</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>6.4845738192761793E-2</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0.94951390073341202</v>
-      </c>
       <c r="AD3" s="4"/>
       <c r="AG3" t="s">
         <v>4</v>
@@ -1042,7 +1036,7 @@
         <v>1.9259755276812192</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1068,33 +1062,33 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="6">
-        <v>1.0597391128364573</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.92843512721143218</v>
-      </c>
-      <c r="W4" s="6">
-        <v>8.3916290037335379</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0.26321760835035068</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1.1747930208689639</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>6.3068656828049685E-2</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>6.3068656828050046E-2</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.95377792938768502</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" s="9"/>
       <c r="AD4" s="4"/>
       <c r="AG4" t="s">
         <v>5</v>
@@ -1137,7 +1131,7 @@
       <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="U5" s="6">
@@ -1158,12 +1152,10 @@
       <c r="Z5" s="6">
         <v>1.5555266968967987E-3</v>
       </c>
-      <c r="AA5" s="6">
-        <v>3.1333518568116489E-3</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="AA5" s="1">
         <v>0.95338541666666599</v>
       </c>
+      <c r="AB5" s="1"/>
       <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
@@ -1215,7 +1207,7 @@
       <c r="S6" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="15"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="6">
         <v>0.99062121823315796</v>
       </c>
@@ -1234,12 +1226,10 @@
       <c r="Z6" s="6">
         <v>-4.4017243629115334E-3</v>
       </c>
-      <c r="AA6" s="6">
-        <v>4.6116503221052471E-3</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="AA6" s="1">
         <v>0.95351562499999998</v>
       </c>
+      <c r="AB6" s="1"/>
       <c r="AD6" s="4"/>
       <c r="AG6" t="s">
         <v>11</v>
@@ -1321,6 +1311,34 @@
         <f>((D7-D8)+(E7-E8))</f>
         <v>1.5619954908652686E-2</v>
       </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1.0471703312663012</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.91347142842245987</v>
+      </c>
+      <c r="W7" s="6">
+        <v>14.950328595445528</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.40669243884312473</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1.5172477777069169</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>6.4845738192761598E-2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.94951390073341202</v>
+      </c>
+      <c r="AB7" s="1"/>
       <c r="AG7" t="s">
         <v>4</v>
       </c>
@@ -1381,6 +1399,32 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="6">
+        <v>1.0597391128364573</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.92843512721143218</v>
+      </c>
+      <c r="W8" s="6">
+        <v>8.3916290037335379</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.26321760835035068</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1.1747930208689639</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>6.3068656828049685E-2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.95377792938768502</v>
+      </c>
+      <c r="AB8" s="1"/>
       <c r="AG8" t="s">
         <v>5</v>
       </c>
@@ -1585,6 +1629,10 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
+      <c r="AD12">
+        <f>SUM(AI12,AI13,AI16,AI17)/SUM(AH12,AH13,AH16,AH17,AI12,AI13,AI16,AI17)</f>
+        <v>0.95377792938768546</v>
+      </c>
       <c r="AG12" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2082,7 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1">
@@ -2182,7 +2230,7 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1">
         <v>0.96103896103896103</v>
       </c>
@@ -2273,7 +2321,7 @@
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1">
@@ -2360,7 +2408,7 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1">
         <v>0.94849785407725296</v>
       </c>
@@ -2442,7 +2490,7 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1">
@@ -2537,7 +2585,7 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1">
         <v>0.96407185628742498</v>
       </c>
@@ -2588,7 +2636,7 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1">
@@ -2650,7 +2698,7 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1">
         <v>0.98709677419354802</v>
       </c>
@@ -2920,7 +2968,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1">
@@ -3007,7 +3055,7 @@
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1">
         <v>0.95131845841784901</v>
       </c>
@@ -3085,11 +3133,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="1">
@@ -3206,11 +3254,11 @@
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="1">
         <v>0.950643776824034</v>
       </c>
@@ -3282,11 +3330,11 @@
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="1">
@@ -3343,12 +3391,30 @@
         <f t="shared" si="33"/>
         <v>-1.5596945328643017E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BB35" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="1">
         <v>0.95409181636726503</v>
       </c>
@@ -3379,12 +3445,30 @@
       <c r="AG36" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BB36" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE36" s="6">
+        <v>0.82399561956773526</v>
+      </c>
+      <c r="BF36" s="6">
+        <v>1.4522853347537481</v>
+      </c>
+      <c r="BG36" s="6">
+        <v>1.0939272161343965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1">
@@ -3459,12 +3543,26 @@
       <c r="AL37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BB37" s="18"/>
+      <c r="BC37" s="18"/>
+      <c r="BD37" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE37" s="6">
+        <v>0.75366658186703694</v>
+      </c>
+      <c r="BF37" s="6">
+        <v>1.4335877981563301</v>
+      </c>
+      <c r="BG37" s="6">
+        <v>1.0394456289978677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="1">
         <v>0.989247311827957</v>
       </c>
@@ -3490,10 +3588,10 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="R38" s="6"/>
-      <c r="AG38" s="15" t="s">
+      <c r="AG38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AH38" s="15" t="s">
+      <c r="AH38" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AI38" t="s">
@@ -3508,13 +3606,27 @@
       <c r="AL38" s="6">
         <v>14.950328595445516</v>
       </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE38" s="6">
+        <v>0.86969960656853074</v>
+      </c>
+      <c r="BF38" s="6">
+        <v>1.3299793589091098</v>
+      </c>
+      <c r="BG38" s="6">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="P39" s="6"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="6"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
       <c r="AI39" t="s">
         <v>23</v>
       </c>
@@ -3527,8 +3639,24 @@
       <c r="AL39" s="6">
         <v>0.40669243884312489</v>
       </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="BB39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC39" s="18"/>
+      <c r="BD39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE39" s="6">
+        <v>0.75120733946572149</v>
+      </c>
+      <c r="BF39" s="6">
+        <v>1.3425307314484909</v>
+      </c>
+      <c r="BG39" s="6">
+        <v>1.0042504363565843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3545,8 +3673,8 @@
         <v>54</v>
       </c>
       <c r="R40" s="6"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
       <c r="AI40" t="s">
         <v>24</v>
       </c>
@@ -3559,12 +3687,26 @@
       <c r="AL40" s="6">
         <v>1.5169999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="18"/>
+      <c r="BD40" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE40" s="6">
+        <v>0.90018351710676459</v>
+      </c>
+      <c r="BF40" s="6">
+        <v>1.6843301984642935</v>
+      </c>
+      <c r="BG40" s="6">
+        <v>1.2313432835820897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
@@ -3576,10 +3718,10 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="AG41" s="15" t="s">
+      <c r="AG41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AH41" s="15"/>
+      <c r="AH41" s="18"/>
       <c r="AI41" t="s">
         <v>22</v>
       </c>
@@ -3592,10 +3734,24 @@
       <c r="AL41" s="6">
         <v>8.3916290037335433</v>
       </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="BB41" s="18"/>
+      <c r="BC41" s="18"/>
+      <c r="BD41" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE41" s="6">
+        <v>0.89431167636834985</v>
+      </c>
+      <c r="BF41" s="6">
+        <v>1.3687978866132742</v>
+      </c>
+      <c r="BG41" s="6">
+        <v>1.1060000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" t="s">
         <v>56</v>
       </c>
@@ -3607,8 +3763,8 @@
         <v>0.954666666666666</v>
       </c>
       <c r="Q42" s="4"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
       <c r="AI42" t="s">
         <v>23</v>
       </c>
@@ -3621,10 +3777,28 @@
       <c r="AL42" s="6">
         <v>0.26321760835035174</v>
       </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15" t="s">
+      <c r="BB42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE42" s="6">
+        <v>4.7969553495592017</v>
+      </c>
+      <c r="BF42" s="6">
+        <v>14.680027685221829</v>
+      </c>
+      <c r="BG42" s="6">
+        <v>14.950328595445516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C43" t="s">
@@ -3639,8 +3813,8 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="Q43" s="4"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
       <c r="AI43" t="s">
         <v>24</v>
       </c>
@@ -3653,10 +3827,24 @@
       <c r="AL43" s="6">
         <v>1.175</v>
       </c>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="BB43" s="18"/>
+      <c r="BC43" s="18"/>
+      <c r="BD43" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE43" s="6">
+        <v>0.28435260529220013</v>
+      </c>
+      <c r="BF43" s="6">
+        <v>0.58166774889298278</v>
+      </c>
+      <c r="BG43" s="6">
+        <v>0.40669243884312489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" t="s">
         <v>56</v>
       </c>
@@ -3668,10 +3856,10 @@
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="AG44" s="15" t="s">
+      <c r="AG44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AH44" s="15" t="s">
+      <c r="AH44" s="18" t="s">
         <v>30</v>
       </c>
       <c r="AI44" t="s">
@@ -3686,12 +3874,26 @@
       <c r="AL44" s="6">
         <v>1.0939272161343965</v>
       </c>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="BB44" s="18"/>
+      <c r="BC44" s="18"/>
+      <c r="BD44" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE44" s="6">
+        <v>1.1952596416051517</v>
+      </c>
+      <c r="BF44" s="6">
+        <v>1.9259755276812192</v>
+      </c>
+      <c r="BG44" s="6">
+        <v>1.5169999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="s">
@@ -3703,8 +3905,8 @@
       <c r="E45" s="5">
         <v>1</v>
       </c>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
       <c r="AI45" t="s">
         <v>23</v>
       </c>
@@ -3717,10 +3919,26 @@
       <c r="AL45" s="6">
         <v>1.0394456289978677</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="BB45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC45" s="18"/>
+      <c r="BD45" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE45" s="6">
+        <v>4.7969553495592017</v>
+      </c>
+      <c r="BF45" s="6">
+        <v>14.680027685221829</v>
+      </c>
+      <c r="BG45" s="6">
+        <v>8.3916290037335433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>56</v>
       </c>
@@ -3731,8 +3949,8 @@
         <f>95.9583333333333/100</f>
         <v>0.95958333333333301</v>
       </c>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="15"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
       <c r="AI46" t="s">
         <v>24</v>
       </c>
@@ -3745,10 +3963,24 @@
       <c r="AL46" s="6">
         <v>1.075</v>
       </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
+      <c r="BB46" s="18"/>
+      <c r="BC46" s="18"/>
+      <c r="BD46" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE46" s="6">
+        <v>0.17374478051213521</v>
+      </c>
+      <c r="BF46" s="6">
+        <v>0.3987659896398445</v>
+      </c>
+      <c r="BG46" s="6">
+        <v>0.26321760835035174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
@@ -3760,10 +3992,10 @@
       <c r="E47" s="5">
         <v>1</v>
       </c>
-      <c r="AG47" s="15" t="s">
+      <c r="AG47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AH47" s="15"/>
+      <c r="AH47" s="18"/>
       <c r="AI47" t="s">
         <v>22</v>
       </c>
@@ -3776,10 +4008,24 @@
       <c r="AL47" s="6">
         <v>1.0042504363565843</v>
       </c>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="BB47" s="18"/>
+      <c r="BC47" s="18"/>
+      <c r="BD47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE47" s="6">
+        <v>0.9199513753044396</v>
+      </c>
+      <c r="BF47" s="6">
+        <v>1.5002299892488464</v>
+      </c>
+      <c r="BG47" s="6">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" t="s">
         <v>56</v>
       </c>
@@ -3789,8 +4035,8 @@
       <c r="E48" s="5">
         <v>0.94073170731707301</v>
       </c>
-      <c r="AG48" s="15"/>
-      <c r="AH48" s="15"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
       <c r="AI48" t="s">
         <v>23</v>
       </c>
@@ -3805,8 +4051,8 @@
       </c>
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="AG49" s="15"/>
-      <c r="AH49" s="15"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
       <c r="AI49" t="s">
         <v>24</v>
       </c>
@@ -3920,7 +4166,7 @@
       <c r="AM59" t="s">
         <v>38</v>
       </c>
-      <c r="AN59" s="16" t="s">
+      <c r="AN59" s="15" t="s">
         <v>1</v>
       </c>
       <c r="AO59" t="str">
@@ -4050,10 +4296,10 @@
       </c>
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
@@ -4117,28 +4363,10 @@
       <c r="AT61" s="6"/>
       <c r="AU61" s="6"/>
       <c r="AV61" s="6"/>
-      <c r="AZ61" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA61" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB61" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC61" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD61" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE61" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
       <c r="C62" t="s">
         <v>28</v>
       </c>
@@ -4163,29 +4391,10 @@
       <c r="J62">
         <v>1</v>
       </c>
-      <c r="AZ62" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA62" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC62" s="6">
-        <v>0.7877399437880801</v>
-      </c>
-      <c r="BD62" s="6">
-        <v>1.3040913961855733</v>
-      </c>
-      <c r="BE62" s="6">
-        <f>AJ60</f>
-        <v>1.0135506317524263</v>
-      </c>
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C63" t="s">
@@ -4239,24 +4448,10 @@
       <c r="AN63" t="s">
         <v>0</v>
       </c>
-      <c r="AZ63" s="15"/>
-      <c r="BA63" s="15"/>
-      <c r="BB63" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC63" s="6">
-        <v>0.7439784986644562</v>
-      </c>
-      <c r="BD63" s="6">
-        <v>1.3092299686965818</v>
-      </c>
-      <c r="BE63" s="6">
-        <v>0.98699999999999999</v>
-      </c>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" t="s">
         <v>28</v>
       </c>
@@ -4319,26 +4514,12 @@
       <c r="AT64" s="6"/>
       <c r="AU64" s="6"/>
       <c r="AV64" s="6"/>
-      <c r="AZ64" s="15"/>
-      <c r="BA64" s="15"/>
-      <c r="BB64" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC64" s="6">
-        <v>0.83212542451522276</v>
-      </c>
-      <c r="BD64" s="6">
-        <v>1.2116901986290423</v>
-      </c>
-      <c r="BE64" s="13">
-        <v>1.004</v>
-      </c>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C65" t="s">
@@ -4387,26 +4568,10 @@
       <c r="AT65" s="6"/>
       <c r="AU65" s="6"/>
       <c r="AV65" s="6"/>
-      <c r="AZ65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA65" s="15"/>
-      <c r="BB65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC65" s="6">
-        <v>0.91139539146555737</v>
-      </c>
-      <c r="BD65" s="6">
-        <v>1.5441008436806898</v>
-      </c>
-      <c r="BE65" s="6">
-        <v>1.1859999999999999</v>
-      </c>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" t="s">
         <v>28</v>
       </c>
@@ -4431,24 +4596,10 @@
       <c r="J66" s="1">
         <v>0.87619372442019094</v>
       </c>
-      <c r="AZ66" s="15"/>
-      <c r="BA66" s="15"/>
-      <c r="BB66" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC66" s="6">
-        <v>1.0190642369224725</v>
-      </c>
-      <c r="BD66" s="6">
-        <v>2.4694226117442786</v>
-      </c>
-      <c r="BE66" s="6">
-        <v>1.5860000000000001</v>
-      </c>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C67" t="s">
@@ -4475,24 +4626,28 @@
       <c r="J67" s="1">
         <v>0.93763020833333299</v>
       </c>
-      <c r="AZ67" s="15"/>
-      <c r="BA67" s="15"/>
+      <c r="AZ67" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA67" t="s">
+        <v>26</v>
+      </c>
       <c r="BB67" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC67" s="6">
-        <v>1.0290099893786711</v>
-      </c>
-      <c r="BD67" s="6">
-        <v>1.6111362152079405</v>
-      </c>
-      <c r="BE67" s="6">
-        <v>1.288</v>
+        <v>48</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4727,10 @@
       <c r="AV68" t="s">
         <v>38</v>
       </c>
-      <c r="AZ68" s="15" t="s">
+      <c r="AZ68" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="BA68" s="15" t="s">
+      <c r="BA68" s="18" t="s">
         <v>30</v>
       </c>
       <c r="BB68" t="s">
@@ -4592,10 +4747,10 @@
       </c>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C69" t="s">
@@ -4687,8 +4842,8 @@
         <f>EXP(LN(AS69)+1.96*AT69)</f>
         <v>1.6111362152079405</v>
       </c>
-      <c r="AZ69" s="15"/>
-      <c r="BA69" s="15"/>
+      <c r="AZ69" s="18"/>
+      <c r="BA69" s="18"/>
       <c r="BB69" t="s">
         <v>23</v>
       </c>
@@ -4703,8 +4858,8 @@
       </c>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" t="s">
         <v>28</v>
       </c>
@@ -4766,8 +4921,8 @@
       <c r="AT70" s="6"/>
       <c r="AU70" s="6"/>
       <c r="AV70" s="6"/>
-      <c r="AZ70" s="15"/>
-      <c r="BA70" s="15"/>
+      <c r="AZ70" s="18"/>
+      <c r="BA70" s="18"/>
       <c r="BB70" t="s">
         <v>24</v>
       </c>
@@ -4782,8 +4937,8 @@
       </c>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C71" t="s">
@@ -4810,10 +4965,10 @@
       <c r="J71" s="1">
         <v>0.95664062500000002</v>
       </c>
-      <c r="AZ71" s="15" t="s">
+      <c r="AZ71" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="BA71" s="15"/>
+      <c r="BA71" s="18"/>
       <c r="BB71" t="s">
         <v>22</v>
       </c>
@@ -4828,8 +4983,8 @@
       </c>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" t="s">
         <v>28</v>
       </c>
@@ -4881,8 +5036,8 @@
       <c r="AN72" t="s">
         <v>0</v>
       </c>
-      <c r="AZ72" s="15"/>
-      <c r="BA72" s="15"/>
+      <c r="AZ72" s="18"/>
+      <c r="BA72" s="18"/>
       <c r="BB72" t="s">
         <v>23</v>
       </c>
@@ -4938,8 +5093,8 @@
       <c r="AT73" s="6"/>
       <c r="AU73" s="6"/>
       <c r="AV73" s="6"/>
-      <c r="AZ73" s="15"/>
-      <c r="BA73" s="15"/>
+      <c r="AZ73" s="18"/>
+      <c r="BA73" s="18"/>
       <c r="BB73" t="s">
         <v>24</v>
       </c>
@@ -5006,12 +5161,31 @@
       <c r="AT74" s="6"/>
       <c r="AU74" s="6"/>
       <c r="AV74" s="6"/>
+      <c r="AZ74" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA74" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC74" s="6">
+        <v>0.7877399437880801</v>
+      </c>
+      <c r="BD74" s="6">
+        <v>1.3040913961855733</v>
+      </c>
+      <c r="BE74" s="6">
+        <f>AJ60</f>
+        <v>1.0135506317524263</v>
+      </c>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
@@ -5038,10 +5212,24 @@
       <c r="J75">
         <v>1</v>
       </c>
+      <c r="AZ75" s="18"/>
+      <c r="BA75" s="18"/>
+      <c r="BB75" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC75" s="6">
+        <v>0.7439784986644562</v>
+      </c>
+      <c r="BD75" s="6">
+        <v>1.3092299686965818</v>
+      </c>
+      <c r="BE75" s="6">
+        <v>0.98699999999999999</v>
+      </c>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" t="s">
         <v>28</v>
       </c>
@@ -5121,10 +5309,24 @@
       <c r="AV76" t="s">
         <v>38</v>
       </c>
+      <c r="AZ76" s="18"/>
+      <c r="BA76" s="18"/>
+      <c r="BB76" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC76" s="6">
+        <v>0.83212542451522276</v>
+      </c>
+      <c r="BD76" s="6">
+        <v>1.2116901986290423</v>
+      </c>
+      <c r="BE76" s="13">
+        <v>1.004</v>
+      </c>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C77" t="s">
@@ -5216,10 +5418,26 @@
         <f>EXP(LN(AS77)+1.96*AT77)</f>
         <v>1.3363322657665735</v>
       </c>
+      <c r="AZ77" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA77" s="18"/>
+      <c r="BB77" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC77" s="6">
+        <v>0.91139539146555737</v>
+      </c>
+      <c r="BD77" s="6">
+        <v>1.5441008436806898</v>
+      </c>
+      <c r="BE77" s="6">
+        <v>1.1859999999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" t="s">
         <v>28</v>
       </c>
@@ -5281,12 +5499,26 @@
       <c r="AT78" s="6"/>
       <c r="AU78" s="6"/>
       <c r="AV78" s="6"/>
+      <c r="AZ78" s="18"/>
+      <c r="BA78" s="18"/>
+      <c r="BB78" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC78" s="6">
+        <v>1.0190642369224725</v>
+      </c>
+      <c r="BD78" s="6">
+        <v>2.4694226117442786</v>
+      </c>
+      <c r="BE78" s="6">
+        <v>1.5860000000000001</v>
+      </c>
     </row>
     <row r="79" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C79" t="s">
@@ -5313,10 +5545,24 @@
       <c r="J79" s="1">
         <v>0.953125</v>
       </c>
+      <c r="AZ79" s="18"/>
+      <c r="BA79" s="18"/>
+      <c r="BB79" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC79" s="6">
+        <v>1.0290099893786711</v>
+      </c>
+      <c r="BD79" s="6">
+        <v>1.6111362152079405</v>
+      </c>
+      <c r="BE79" s="6">
+        <v>1.288</v>
+      </c>
     </row>
     <row r="80" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" t="s">
         <v>28</v>
       </c>
@@ -5369,9 +5615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15" t="s">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C81" t="s">
@@ -5437,9 +5683,9 @@
       <c r="AU81" s="6"/>
       <c r="AV81" s="6"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" t="s">
         <v>28</v>
       </c>
@@ -5487,11 +5733,11 @@
       <c r="AU82" s="6"/>
       <c r="AV82" s="6"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C83" t="s">
@@ -5519,9 +5765,9 @@
         <v>0.95703125</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
       <c r="C84" t="s">
         <v>28</v>
       </c>
@@ -5547,9 +5793,9 @@
         <v>0.90800681431005104</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15" t="s">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C85" t="s">
@@ -5632,9 +5878,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
       <c r="C86" t="s">
         <v>28</v>
       </c>
@@ -5725,7 +5971,7 @@
         <v>1.3156745677627903</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>83</v>
       </c>
@@ -5766,8 +6012,11 @@
       <c r="AT87" s="6"/>
       <c r="AU87" s="6"/>
       <c r="AV87" s="6"/>
-    </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="BN87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -5796,17 +6045,32 @@
         <v>31</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
+      <c r="BO88" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP88" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ88" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR88" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS88" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C89" t="s">
@@ -5816,28 +6080,25 @@
         <v>10</v>
       </c>
       <c r="E89" s="6">
-        <v>0.79800000000000004</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="F89" s="3">
         <f>G105/G106</f>
-        <v>1.3860640301318308</v>
+        <v>3.1186440677965881</v>
       </c>
       <c r="G89" s="3">
         <f>H105/H106</f>
-        <v>1.6078817733990136</v>
+        <v>1.187639946260636</v>
       </c>
       <c r="H89" s="6">
         <f>(1-I105)/(1-I106)</f>
-        <v>1.570850202429132</v>
+        <v>1.3614035087719132</v>
       </c>
       <c r="I89">
-        <v>-1.18E-2</v>
-      </c>
-      <c r="J89" s="8">
-        <v>3.61E-2</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0.95703125</v>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0.96354166666666596</v>
       </c>
       <c r="AF89" t="s">
         <v>10</v>
@@ -5866,10 +6127,31 @@
       <c r="AN89" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
+      <c r="BN89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO89" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP89" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ89" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR89" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS89" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" t="s">
         <v>28</v>
       </c>
@@ -5877,25 +6159,23 @@
         <v>11</v>
       </c>
       <c r="E90" s="6">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="F90" s="6">
-        <v>1.2769953051643099</v>
+        <v>0.60093896713615003</v>
       </c>
       <c r="G90" s="6">
-        <v>0.97961075069508796</v>
-      </c>
-      <c r="H90">
-        <v>1.123</v>
-      </c>
-      <c r="I90">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="J90" s="8">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="K90" s="1">
-        <v>0.90459965928449704</v>
+        <v>0.98544176706827302</v>
+      </c>
+      <c r="H90" s="6">
+        <f>(1-I110)/(1-I111)</f>
+        <v>0.75487012987013125</v>
+      </c>
+      <c r="I90" s="6">
+        <v>-2.75E-2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0.90630323679727398</v>
       </c>
       <c r="AF90" t="s">
         <v>6</v>
@@ -5930,10 +6210,31 @@
         <f>1-AI90</f>
         <v>0.96378504672897192</v>
       </c>
-    </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15" t="s">
+      <c r="BN90" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO90" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP90" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ90" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR90" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS90" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C91" t="s">
@@ -5943,24 +6244,21 @@
         <v>10</v>
       </c>
       <c r="E91" s="6">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="F91" s="6">
-        <v>0.64971751412429302</v>
+        <v>0.75603492552645002</v>
       </c>
       <c r="G91" s="6">
-        <v>1.2368321333838499</v>
-      </c>
-      <c r="H91">
+        <v>1.3064039408866901</v>
+      </c>
+      <c r="H91" s="6">
         <v>1.0209999999999999</v>
       </c>
-      <c r="I91">
-        <v>-1.52E-2</v>
-      </c>
-      <c r="J91" s="8">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K91" s="1">
+      <c r="I91" s="6">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="J91" s="1">
         <v>0.9453125</v>
       </c>
       <c r="AF91" t="s">
@@ -5980,10 +6278,31 @@
         <f>1-AI91</f>
         <v>0.96509598603839442</v>
       </c>
-    </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
+      <c r="BN91" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO91" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP91" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ91" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR91" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS91" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" t="s">
         <v>28</v>
       </c>
@@ -5991,32 +6310,50 @@
         <v>11</v>
       </c>
       <c r="E92" s="6">
-        <v>0.66600000000000004</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="F92" s="5">
         <v>0.58326429163214499</v>
       </c>
       <c r="G92" s="5">
-        <v>3.0927710843373402</v>
+        <v>2.9108433734939698</v>
       </c>
       <c r="H92">
-        <v>1.153</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="I92">
-        <v>-6.2300000000000001E-2</v>
-      </c>
-      <c r="J92" s="8">
-        <v>0.1246</v>
-      </c>
-      <c r="K92" s="1">
-        <v>0.91482112436115803</v>
-      </c>
-    </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
+        <v>-5.9299999999999999E-2</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0.91652470187393498</v>
+      </c>
+      <c r="BN92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO92" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS92" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C93" t="s">
@@ -6026,30 +6363,48 @@
         <v>10</v>
       </c>
       <c r="E93" s="6">
-        <v>0.53800000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="F93" s="6">
-        <v>3.3785310734463199</v>
+        <v>2.0790960451977401</v>
       </c>
       <c r="G93" s="6">
-        <v>3.3785310734463199</v>
+        <v>1.56321839080459</v>
       </c>
       <c r="H93" s="6">
-        <v>2.246</v>
+        <v>1.702</v>
       </c>
       <c r="I93" s="6">
-        <v>1.84E-2</v>
-      </c>
-      <c r="J93" s="6">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="K93" s="1">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="J93" s="1">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
+      <c r="BN93" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO93" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP93" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ93" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR93" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS93" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
       <c r="C94" t="s">
         <v>28</v>
       </c>
@@ -6057,30 +6412,27 @@
         <v>11</v>
       </c>
       <c r="E94" s="6">
-        <v>0.67600000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="F94" s="6">
-        <v>0.530240265120132</v>
+        <v>0.99154929577464701</v>
       </c>
       <c r="G94" s="6">
-        <v>2.5469879518072198</v>
+        <v>1.03958691910499</v>
       </c>
       <c r="H94" s="6">
-        <v>0.98799999999999999</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="I94" s="6">
-        <v>-5.6800000000000003E-2</v>
-      </c>
-      <c r="J94" s="8">
-        <v>0.11360000000000001</v>
-      </c>
-      <c r="K94" s="1">
-        <v>0.92163543441226503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15" t="s">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0.91311754684838098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C95" t="s">
@@ -6090,25 +6442,22 @@
         <v>10</v>
       </c>
       <c r="E95" s="6">
-        <v>0.81</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="F95" s="6">
-        <v>0.51977401129943501</v>
+        <v>0.77966101694915202</v>
       </c>
       <c r="G95" s="6">
-        <v>1.4687381583933301</v>
-      </c>
-      <c r="H95">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="I95">
-        <v>-2.5399999999999999E-2</v>
-      </c>
-      <c r="J95">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="K95" s="1">
-        <v>0.94270833333333304</v>
+        <v>1.27899686520376</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1.075</v>
+      </c>
+      <c r="I95" s="6">
+        <v>-1.23E-2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0.94921875</v>
       </c>
       <c r="AF95" t="s">
         <v>0</v>
@@ -6180,9 +6529,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
+    <row r="96" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
       <c r="C96" t="s">
         <v>28</v>
       </c>
@@ -6190,25 +6539,22 @@
         <v>11</v>
       </c>
       <c r="E96" s="6">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H96">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" s="1">
-        <v>0.54003407155025496</v>
+        <v>0.50704225352112597</v>
+      </c>
+      <c r="G96" s="6">
+        <v>2.4690189328743499</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1.103</v>
+      </c>
+      <c r="I96" s="6">
+        <v>-6.4899999999999999E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0.91311754684838098</v>
       </c>
       <c r="AD96" s="14"/>
       <c r="AE96" t="s">
@@ -6264,7 +6610,7 @@
       <c r="AW96" t="s">
         <v>27</v>
       </c>
-      <c r="AX96" s="15" t="s">
+      <c r="AX96" s="18" t="s">
         <v>28</v>
       </c>
       <c r="AY96" s="3">
@@ -6290,10 +6636,10 @@
       </c>
     </row>
     <row r="97" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C97" t="s">
@@ -6302,26 +6648,23 @@
       <c r="D97" t="s">
         <v>10</v>
       </c>
-      <c r="E97">
-        <v>0.32800000000000001</v>
+      <c r="E97" s="6">
+        <v>0.34799999999999998</v>
       </c>
       <c r="F97" s="6">
-        <v>1.1358024691358</v>
+        <v>1.35382998291945</v>
       </c>
       <c r="G97" s="6">
-        <v>1.0962830273175099</v>
-      </c>
-      <c r="H97">
-        <v>1.115</v>
-      </c>
-      <c r="I97">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="J97">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0.82291666666666596</v>
+        <v>1.0049261083743799</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1.232</v>
+      </c>
+      <c r="I97" s="6">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0.81901041666666596</v>
       </c>
       <c r="AD97" s="14"/>
       <c r="AE97" t="s">
@@ -6347,7 +6690,7 @@
       <c r="AW97" t="s">
         <v>29</v>
       </c>
-      <c r="AX97" s="15"/>
+      <c r="AX97" s="18"/>
       <c r="AY97" s="3">
         <v>0.98498948884089277</v>
       </c>
@@ -6371,8 +6714,8 @@
       </c>
     </row>
     <row r="98" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" t="s">
         <v>28</v>
       </c>
@@ -6380,25 +6723,22 @@
         <v>11</v>
       </c>
       <c r="E98" s="6">
-        <v>0.68</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F98" s="6">
-        <v>0.90140845070422504</v>
+        <v>1.1538028169014001</v>
       </c>
       <c r="G98" s="6">
-        <v>0.92431014380100995</v>
+        <v>0.81599929128277804</v>
       </c>
       <c r="H98" s="6">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I98">
-        <v>6.3E-3</v>
-      </c>
-      <c r="J98">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0.70528109028960795</v>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="I98" s="6">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.68313458262350901</v>
       </c>
       <c r="AM98" t="s">
         <v>18</v>
@@ -6430,7 +6770,7 @@
       <c r="AW98" t="s">
         <v>27</v>
       </c>
-      <c r="AX98" s="15" t="s">
+      <c r="AX98" s="18" t="s">
         <v>30</v>
       </c>
       <c r="AY98" s="3">
@@ -6456,8 +6796,8 @@
       </c>
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C99" t="s">
@@ -6466,25 +6806,22 @@
       <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="E99">
-        <v>0.16800000000000001</v>
+      <c r="E99" s="6">
+        <v>0.25800000000000001</v>
       </c>
       <c r="F99" s="6">
-        <v>1.4328905176362801</v>
+        <v>1.62429378531073</v>
       </c>
       <c r="G99" s="6">
-        <v>1.0049261083743799</v>
+        <v>1.33990147783251</v>
       </c>
       <c r="H99" s="6">
-        <v>1.37</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="I99" s="6">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="J99" s="6">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="K99" s="1">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="J99" s="1">
         <v>0.875</v>
       </c>
       <c r="AF99" t="s">
@@ -6537,7 +6874,7 @@
       <c r="AW99" t="s">
         <v>29</v>
       </c>
-      <c r="AX99" s="15"/>
+      <c r="AX99" s="18"/>
       <c r="AY99" s="3">
         <v>0.99864164878065265</v>
       </c>
@@ -6561,8 +6898,8 @@
       </c>
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" t="s">
         <v>28</v>
       </c>
@@ -6581,13 +6918,10 @@
       <c r="H100" s="6">
         <v>0.69299999999999995</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="6">
         <v>-2.7900000000000001E-2</v>
       </c>
-      <c r="J100">
-        <v>0.1171</v>
-      </c>
-      <c r="K100" s="1">
+      <c r="J100" s="1">
         <v>0.84667802385008495</v>
       </c>
       <c r="AD100" s="14"/>
@@ -6821,67 +7155,67 @@
       </c>
     </row>
     <row r="105" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="1">
-        <f>187/(187+16)</f>
-        <v>0.9211822660098522</v>
+        <f>190/(190+13)</f>
+        <v>0.93596059113300489</v>
       </c>
       <c r="F105" s="1">
-        <f>173/(173+4)</f>
-        <v>0.97740112994350281</v>
+        <f>174/(174+3)</f>
+        <v>0.98305084745762716</v>
       </c>
       <c r="G105" s="1">
         <f>1-F105</f>
-        <v>2.2598870056497189E-2</v>
+        <v>1.6949152542372836E-2</v>
       </c>
       <c r="H105" s="1">
         <f>1-E105</f>
-        <v>7.8817733990147798E-2</v>
+        <v>6.4039408866995107E-2</v>
       </c>
       <c r="I105" s="1">
-        <v>0.94736842105263097</v>
-      </c>
-      <c r="L105" s="15" t="s">
+        <v>0.95789473684210502</v>
+      </c>
+      <c r="L105" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M105" s="15" t="s">
+      <c r="M105" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N105" s="15" t="s">
+      <c r="N105" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O105" t="s">
         <v>6</v>
       </c>
       <c r="P105" s="1">
-        <f>187/(187+16)</f>
-        <v>0.9211822660098522</v>
+        <f>190/(190+13)</f>
+        <v>0.93596059113300489</v>
       </c>
       <c r="Q105" s="1">
-        <f>173/(173+4)</f>
-        <v>0.97740112994350281</v>
+        <f>174/(174+3)</f>
+        <v>0.98305084745762716</v>
       </c>
       <c r="R105" s="1">
         <f>1-Q105</f>
-        <v>2.2598870056497189E-2</v>
+        <v>1.6949152542372836E-2</v>
       </c>
       <c r="S105" s="1">
         <f>1-P105</f>
-        <v>7.8817733990147798E-2</v>
+        <v>6.4039408866995107E-2</v>
       </c>
       <c r="T105" s="1">
-        <v>0.94736842105263097</v>
+        <v>0.95789473684210502</v>
       </c>
       <c r="U105" s="5"/>
       <c r="AD105" s="14"/>
@@ -6937,108 +7271,108 @@
       </c>
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="1">
-        <f>194/(194+10)</f>
-        <v>0.9509803921568627</v>
+        <f>193/(193+11)</f>
+        <v>0.94607843137254899</v>
       </c>
       <c r="F106" s="1">
-        <f>181/(181+3)</f>
-        <v>0.98369565217391308</v>
+        <f>183/184</f>
+        <v>0.99456521739130432</v>
       </c>
       <c r="G106" s="1">
         <f>1-F106</f>
-        <v>1.6304347826086918E-2</v>
+        <v>5.4347826086956763E-3</v>
       </c>
       <c r="H106" s="1">
         <f>1-E106</f>
-        <v>4.9019607843137303E-2</v>
+        <v>5.3921568627451011E-2</v>
       </c>
       <c r="I106" s="1">
-        <v>0.96649484536082397</v>
-      </c>
-      <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
+        <v>0.96907216494845305</v>
+      </c>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
       <c r="O106" t="s">
         <v>7</v>
       </c>
       <c r="P106" s="1">
-        <f>194/(194+10)</f>
-        <v>0.9509803921568627</v>
+        <f>193/(193+11)</f>
+        <v>0.94607843137254899</v>
       </c>
       <c r="Q106" s="1">
-        <f>181/(181+3)</f>
-        <v>0.98369565217391308</v>
+        <f>183/184</f>
+        <v>0.99456521739130432</v>
       </c>
       <c r="R106" s="1">
         <f>1-Q106</f>
-        <v>1.6304347826086918E-2</v>
+        <v>5.4347826086956763E-3</v>
       </c>
       <c r="S106" s="1">
         <f>1-P106</f>
-        <v>4.9019607843137303E-2</v>
+        <v>5.3921568627451011E-2</v>
       </c>
       <c r="T106" s="1">
-        <v>0.96649484536082397</v>
+        <v>0.96907216494845305</v>
       </c>
     </row>
     <row r="107" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15" t="s">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C107" s="15"/>
+      <c r="C107" s="18"/>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="1">
-        <f>187/(187+16)</f>
-        <v>0.9211822660098522</v>
+        <f>190/(190+13)</f>
+        <v>0.93596059113300489</v>
       </c>
       <c r="F107" s="1">
-        <f>172/(172+5)</f>
-        <v>0.97175141242937857</v>
+        <f>169/(169+8)</f>
+        <v>0.95480225988700562</v>
       </c>
       <c r="G107" s="1">
         <f>1-F107</f>
-        <v>2.8248587570621431E-2</v>
+        <v>4.5197740112994378E-2</v>
       </c>
       <c r="H107" s="1">
         <f>1-E107</f>
-        <v>7.8817733990147798E-2</v>
+        <v>6.4039408866995107E-2</v>
       </c>
       <c r="I107" s="1">
         <v>0.94473684210526299</v>
       </c>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15" t="s">
+      <c r="L107" s="18"/>
+      <c r="M107" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N107" s="15"/>
+      <c r="N107" s="18"/>
       <c r="O107" t="s">
         <v>6</v>
       </c>
       <c r="P107" s="1">
-        <f>187/(187+16)</f>
-        <v>0.9211822660098522</v>
+        <f>190/(190+13)</f>
+        <v>0.93596059113300489</v>
       </c>
       <c r="Q107" s="1">
-        <f>172/(172+5)</f>
-        <v>0.97175141242937857</v>
+        <f>169/(169+8)</f>
+        <v>0.95480225988700562</v>
       </c>
       <c r="R107" s="1">
         <f>1-Q107</f>
-        <v>2.8248587570621431E-2</v>
+        <v>4.5197740112994378E-2</v>
       </c>
       <c r="S107" s="1">
         <f>1-P107</f>
-        <v>7.8817733990147798E-2</v>
+        <v>6.4039408866995107E-2</v>
       </c>
       <c r="T107" s="1">
         <v>0.94473684210526299</v>
@@ -7060,52 +7394,52 @@
       </c>
     </row>
     <row r="108" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="1">
-        <f>191/(191+13)</f>
-        <v>0.93627450980392157</v>
+        <f>194/204</f>
+        <v>0.9509803921568627</v>
       </c>
       <c r="F108" s="1">
-        <f>176/(176+8)</f>
-        <v>0.95652173913043481</v>
+        <f>173/184</f>
+        <v>0.94021739130434778</v>
       </c>
       <c r="G108" s="1">
         <f>1-F108</f>
-        <v>4.3478260869565188E-2</v>
+        <v>5.9782608695652217E-2</v>
       </c>
       <c r="H108" s="1">
         <f>1-E108</f>
-        <v>6.3725490196078427E-2</v>
+        <v>4.9019607843137303E-2</v>
       </c>
       <c r="I108" s="1">
         <v>0.94587628865979301</v>
       </c>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
       <c r="O108" t="s">
         <v>7</v>
       </c>
       <c r="P108" s="1">
-        <f>191/(191+13)</f>
-        <v>0.93627450980392157</v>
+        <f>194/204</f>
+        <v>0.9509803921568627</v>
       </c>
       <c r="Q108" s="1">
-        <f>176/(176+8)</f>
-        <v>0.95652173913043481</v>
+        <f>173/184</f>
+        <v>0.94021739130434778</v>
       </c>
       <c r="R108" s="1">
         <f>1-Q108</f>
-        <v>4.3478260869565188E-2</v>
+        <v>5.9782608695652217E-2</v>
       </c>
       <c r="S108" s="1">
         <f>1-P108</f>
-        <v>6.3725490196078427E-2</v>
+        <v>4.9019607843137303E-2</v>
       </c>
       <c r="T108" s="1">
         <v>0.94587628865979301</v>
@@ -7158,34 +7492,34 @@
       <c r="I109" t="s">
         <v>9</v>
       </c>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15" t="s">
+      <c r="L109" s="18"/>
+      <c r="M109" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N109" s="15" t="s">
+      <c r="N109" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O109" t="s">
         <v>4</v>
       </c>
       <c r="P109" s="1">
-        <f>152/(152+14)</f>
-        <v>0.91566265060240959</v>
+        <f>153/166</f>
+        <v>0.92168674698795183</v>
       </c>
       <c r="Q109" s="1">
-        <f>125/(125+17)</f>
-        <v>0.88028169014084512</v>
+        <f>130/142</f>
+        <v>0.91549295774647887</v>
       </c>
       <c r="R109" s="1">
         <f>1-Q109</f>
-        <v>0.11971830985915488</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="S109" s="1">
         <f>1-P109</f>
-        <v>8.4337349397590411E-2</v>
+        <v>7.8313253012048167E-2</v>
       </c>
       <c r="T109" s="1">
-        <v>0.89935064935064901</v>
+        <v>0.918831168831168</v>
       </c>
       <c r="AD109" s="14"/>
       <c r="AE109" t="s">
@@ -7210,103 +7544,103 @@
       <c r="AO109" s="2"/>
     </row>
     <row r="110" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
       </c>
       <c r="E110" s="1">
-        <f>152/(152+14)</f>
-        <v>0.91566265060240959</v>
+        <f>153/166</f>
+        <v>0.92168674698795183</v>
       </c>
       <c r="F110" s="1">
-        <f>125/(125+17)</f>
-        <v>0.88028169014084512</v>
+        <f>130/142</f>
+        <v>0.91549295774647887</v>
       </c>
       <c r="G110" s="1">
         <f>1-F110</f>
-        <v>0.11971830985915488</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="H110" s="1">
         <f>1-E110</f>
-        <v>8.4337349397590411E-2</v>
+        <v>7.8313253012048167E-2</v>
       </c>
       <c r="I110" s="1">
-        <v>0.89935064935064901</v>
-      </c>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
+        <v>0.918831168831168</v>
+      </c>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
       <c r="O110" t="s">
         <v>5</v>
       </c>
       <c r="P110" s="1">
-        <f>138/(138+13)</f>
-        <v>0.91390728476821192</v>
+        <f>139/(139+12)</f>
+        <v>0.92052980132450335</v>
       </c>
       <c r="Q110" s="1">
-        <f>116/(116+12)</f>
-        <v>0.90625</v>
+        <f>110/128</f>
+        <v>0.859375</v>
       </c>
       <c r="R110" s="1">
         <f t="shared" ref="R110:R112" si="53">1-Q110</f>
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="S110" s="1">
         <f t="shared" ref="S110:S112" si="54">1-P110</f>
-        <v>8.6092715231788075E-2</v>
+        <v>7.9470198675496651E-2</v>
       </c>
       <c r="T110" s="1">
-        <v>0.91039426523297495</v>
+        <v>0.89247311827956899</v>
       </c>
     </row>
     <row r="111" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
       <c r="D111" t="s">
         <v>5</v>
       </c>
       <c r="E111" s="1">
-        <f>138/(138+13)</f>
-        <v>0.91390728476821192</v>
+        <f>139/(139+12)</f>
+        <v>0.92052980132450335</v>
       </c>
       <c r="F111" s="1">
-        <f>116/(116+12)</f>
-        <v>0.90625</v>
+        <f>110/128</f>
+        <v>0.859375</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" ref="G111:G113" si="55">1-F111</f>
-        <v>9.375E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="H111" s="1">
         <f t="shared" ref="H111:H113" si="56">1-E111</f>
-        <v>8.6092715231788075E-2</v>
+        <v>7.9470198675496651E-2</v>
       </c>
       <c r="I111" s="1">
-        <v>0.91039426523297495</v>
-      </c>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15" t="s">
+        <v>0.89247311827956899</v>
+      </c>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N111" s="15"/>
+      <c r="N111" s="18"/>
       <c r="O111" t="s">
         <v>4</v>
       </c>
       <c r="P111" s="1">
-        <f>149/(149+17)</f>
-        <v>0.89759036144578308</v>
+        <f>150/166</f>
+        <v>0.90361445783132532</v>
       </c>
       <c r="Q111" s="1">
-        <f>131/(131+11)</f>
+        <f>131/142</f>
         <v>0.92253521126760563</v>
       </c>
       <c r="R111" s="1">
@@ -7315,27 +7649,27 @@
       </c>
       <c r="S111" s="1">
         <f t="shared" si="54"/>
-        <v>0.10240963855421692</v>
+        <v>9.6385542168674676E-2</v>
       </c>
       <c r="T111" s="1">
-        <v>0.90909090909090895</v>
+        <v>0.912337662337662</v>
       </c>
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="15"/>
+      <c r="C112" s="18"/>
       <c r="D112" t="s">
         <v>4</v>
       </c>
       <c r="E112" s="1">
-        <f>149/(149+17)</f>
-        <v>0.89759036144578308</v>
+        <f>150/166</f>
+        <v>0.90361445783132532</v>
       </c>
       <c r="F112" s="1">
-        <f>131/(131+11)</f>
+        <f>131/142</f>
         <v>0.92253521126760563</v>
       </c>
       <c r="G112" s="1">
@@ -7344,19 +7678,19 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" si="56"/>
-        <v>0.10240963855421692</v>
+        <v>9.6385542168674676E-2</v>
       </c>
       <c r="I112" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
+        <v>0.912337662337662</v>
+      </c>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
       <c r="O112" t="s">
         <v>5</v>
       </c>
       <c r="P112" s="1">
-        <f>146/(146+5)</f>
+        <f>146/151</f>
         <v>0.9668874172185431</v>
       </c>
       <c r="Q112" s="1">
@@ -7376,14 +7710,14 @@
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
       <c r="D113" t="s">
         <v>5</v>
       </c>
       <c r="E113" s="1">
-        <f>146/(146+5)</f>
+        <f>146/151</f>
         <v>0.9668874172185431</v>
       </c>
       <c r="F113" s="1">
@@ -7401,63 +7735,55 @@
       <c r="I113" s="1">
         <v>0.92114695340501795</v>
       </c>
-      <c r="L113" s="15" t="s">
+      <c r="L113" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="M113" s="15" t="s">
+      <c r="M113" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N113" s="15" t="s">
+      <c r="N113" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O113" t="s">
         <v>6</v>
       </c>
       <c r="P113" s="1">
-        <f>194/(194+9)</f>
-        <v>0.95566502463054193</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="Q113" s="1">
-        <f>164/(164+13)</f>
-        <v>0.92655367231638419</v>
+        <v>0.96610169491525422</v>
       </c>
       <c r="R113" s="1">
-        <f>1-Q113</f>
-        <v>7.3446327683615809E-2</v>
+        <v>3.3898305084745783E-2</v>
       </c>
       <c r="S113" s="1">
-        <f>1-P113</f>
-        <v>4.4334975369458074E-2</v>
+        <v>6.8965517241379337E-2</v>
       </c>
       <c r="T113" s="1">
-        <v>0.942105263157894</v>
+        <v>0.94736842105263097</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
       <c r="O114" t="s">
         <v>7</v>
       </c>
       <c r="P114" s="1">
-        <f>198/(198+6)</f>
-        <v>0.97058823529411764</v>
+        <v>0.95588235294117652</v>
       </c>
       <c r="Q114" s="1">
-        <f>180/184</f>
-        <v>0.97826086956521741</v>
+        <v>0.98369565217391308</v>
       </c>
       <c r="R114" s="1">
-        <f t="shared" ref="R114:R116" si="57">1-Q114</f>
-        <v>2.1739130434782594E-2</v>
+        <v>1.6304347826086918E-2</v>
       </c>
       <c r="S114" s="1">
-        <f t="shared" ref="S114:S116" si="58">1-P114</f>
-        <v>2.9411764705882359E-2</v>
+        <v>4.4117647058823484E-2</v>
       </c>
       <c r="T114" s="1">
-        <v>0.97422680412371099</v>
+        <v>0.96907216494845305</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.2">
@@ -7488,282 +7814,263 @@
       <c r="I115" t="s">
         <v>9</v>
       </c>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15" t="s">
+      <c r="L115" s="18"/>
+      <c r="M115" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N115" s="15"/>
+      <c r="N115" s="18"/>
       <c r="O115" t="s">
         <v>6</v>
       </c>
       <c r="P115" s="1">
-        <f>184/(184+19)</f>
-        <v>0.90640394088669951</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="Q115" s="1">
-        <f>173/(173+4)</f>
-        <v>0.97740112994350281</v>
+        <v>0.96610169491525422</v>
       </c>
       <c r="R115" s="1">
-        <f t="shared" si="57"/>
-        <v>2.2598870056497189E-2</v>
+        <v>3.3898305084745783E-2</v>
       </c>
       <c r="S115" s="1">
-        <f t="shared" si="58"/>
-        <v>9.3596059113300489E-2</v>
+        <v>6.8965517241379337E-2</v>
       </c>
       <c r="T115" s="1">
-        <v>0.93947368421052602</v>
+        <v>0.94736842105263097</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="1">
-        <f>194/(194+9)</f>
-        <v>0.95566502463054193</v>
+        <f>189/(189+14)</f>
+        <v>0.93103448275862066</v>
       </c>
       <c r="F116" s="1">
-        <f>164/(164+13)</f>
-        <v>0.92655367231638419</v>
+        <f>171/177</f>
+        <v>0.96610169491525422</v>
       </c>
       <c r="G116" s="1">
         <f>1-F116</f>
-        <v>7.3446327683615809E-2</v>
+        <v>3.3898305084745783E-2</v>
       </c>
       <c r="H116" s="1">
         <f>1-E116</f>
-        <v>4.4334975369458074E-2</v>
+        <v>6.8965517241379337E-2</v>
       </c>
       <c r="I116" s="1">
-        <v>0.942105263157894</v>
-      </c>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
       <c r="O116" t="s">
         <v>7</v>
       </c>
       <c r="P116" s="1">
-        <f>191/(191+13)</f>
-        <v>0.93627450980392157</v>
+        <v>0.94607843137254899</v>
       </c>
       <c r="Q116" s="1">
-        <f>176/(176+8)</f>
         <v>0.95652173913043481</v>
       </c>
       <c r="R116" s="1">
+        <v>4.3478260869565188E-2</v>
+      </c>
+      <c r="S116" s="1">
+        <v>5.3921568627451011E-2</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0.95103092783505105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="1">
+        <f>195/204</f>
+        <v>0.95588235294117652</v>
+      </c>
+      <c r="F117" s="1">
+        <f>181/184</f>
+        <v>0.98369565217391308</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" ref="G117:G119" si="57">1-F117</f>
+        <v>1.6304347826086918E-2</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" ref="H117:H119" si="58">1-E117</f>
+        <v>4.4117647058823484E-2</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.96907216494845305</v>
+      </c>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" t="s">
+        <v>4</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0.90361445783132532</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0.92253521126760563</v>
+      </c>
+      <c r="R117" s="1">
+        <v>7.7464788732394374E-2</v>
+      </c>
+      <c r="S117" s="1">
+        <v>9.6385542168674676E-2</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0.912337662337662</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1">
+        <f>189/(189+14)</f>
+        <v>0.93103448275862066</v>
+      </c>
+      <c r="F118" s="1">
+        <f>171/177</f>
+        <v>0.96610169491525422</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="57"/>
+        <v>3.3898305084745783E-2</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="58"/>
+        <v>6.8965517241379337E-2</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" t="s">
+        <v>5</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0.9072847682119205</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0.921875</v>
+      </c>
+      <c r="R118" s="1">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="S118" s="1">
+        <v>9.27152317880795E-2</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0.91397849462365499</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL118" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM118" s="1">
+        <v>0.90903922683342797</v>
+      </c>
+      <c r="AN118" s="1">
+        <v>0.94951390073341202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1">
+        <f>193/204</f>
+        <v>0.94607843137254899</v>
+      </c>
+      <c r="F119" s="1">
+        <f>176/184</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="G119" s="1">
         <f t="shared" si="57"/>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="S116" s="1">
+      <c r="H119" s="1">
         <f t="shared" si="58"/>
-        <v>6.3725490196078427E-2</v>
-      </c>
-      <c r="T116" s="1">
-        <v>0.94587628865979301</v>
-      </c>
-    </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="1">
-        <f>198/(198+6)</f>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="F117" s="1">
-        <f>180/184</f>
-        <v>0.97826086956521741</v>
-      </c>
-      <c r="G117" s="1">
-        <f t="shared" ref="G117:G119" si="59">1-F117</f>
-        <v>2.1739130434782594E-2</v>
-      </c>
-      <c r="H117" s="1">
-        <f t="shared" ref="H117:H119" si="60">1-E117</f>
-        <v>2.9411764705882359E-2</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0.97422680412371099</v>
-      </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N117" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O117" t="s">
-        <v>4</v>
-      </c>
-      <c r="P117" s="1">
-        <f>152/(152+14)</f>
-        <v>0.91566265060240959</v>
-      </c>
-      <c r="Q117" s="1">
-        <f>132/142</f>
-        <v>0.92957746478873238</v>
-      </c>
-      <c r="R117" s="1">
-        <f>1-Q117</f>
-        <v>7.0422535211267623E-2</v>
-      </c>
-      <c r="S117" s="1">
-        <f>1-P117</f>
-        <v>8.4337349397590411E-2</v>
-      </c>
-      <c r="T117" s="1">
-        <v>0.92207792207792205</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL117" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN117" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15" t="s">
+        <v>5.3921568627451011E-2</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.95103092783505105</v>
+      </c>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="1">
-        <f>184/(184+19)</f>
-        <v>0.90640394088669951</v>
-      </c>
-      <c r="F118" s="1">
-        <f>173/(173+4)</f>
-        <v>0.97740112994350281</v>
-      </c>
-      <c r="G118" s="1">
-        <f t="shared" si="59"/>
-        <v>2.2598870056497189E-2</v>
-      </c>
-      <c r="H118" s="1">
-        <f t="shared" si="60"/>
-        <v>9.3596059113300489E-2</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0.93947368421052602</v>
-      </c>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" t="s">
-        <v>5</v>
-      </c>
-      <c r="P118" s="1">
-        <f>146/151</f>
-        <v>0.9668874172185431</v>
-      </c>
-      <c r="Q118" s="1">
-        <f>111/(111+17)</f>
-        <v>0.8671875</v>
-      </c>
-      <c r="R118" s="1">
-        <f t="shared" ref="R118:R120" si="61">1-Q118</f>
-        <v>0.1328125</v>
-      </c>
-      <c r="S118" s="1">
-        <f t="shared" ref="S118:S120" si="62">1-P118</f>
-        <v>3.3112582781456901E-2</v>
-      </c>
-      <c r="T118" s="1">
-        <v>0.92114695340501795</v>
-      </c>
-      <c r="AK118" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL118" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM118" s="1">
-        <v>0.90903922683342797</v>
-      </c>
-      <c r="AN118" s="1">
-        <v>0.94951390073341202</v>
-      </c>
-    </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="1">
-        <f>191/(191+13)</f>
-        <v>0.93627450980392157</v>
-      </c>
-      <c r="F119" s="1">
-        <f>176/(176+8)</f>
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="G119" s="1">
-        <f t="shared" si="59"/>
-        <v>4.3478260869565188E-2</v>
-      </c>
-      <c r="H119" s="1">
-        <f t="shared" si="60"/>
-        <v>6.3725490196078427E-2</v>
-      </c>
-      <c r="I119" s="1">
-        <v>0.94587628865979301</v>
-      </c>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N119" s="15"/>
+      <c r="N119" s="18"/>
       <c r="O119" t="s">
         <v>4</v>
       </c>
       <c r="P119" s="1">
-        <f>166/166</f>
-        <v>1</v>
+        <v>0.88554216867469882</v>
       </c>
       <c r="Q119" s="1">
-        <v>0</v>
+        <v>0.93661971830985913</v>
       </c>
       <c r="R119" s="1">
-        <f t="shared" si="61"/>
-        <v>1</v>
+        <v>6.3380281690140872E-2</v>
       </c>
       <c r="S119" s="1">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.11445783132530118</v>
       </c>
       <c r="T119" s="1">
-        <v>0.53896103896103897</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="AK119" t="s">
         <v>18</v>
       </c>
-      <c r="AL119" s="15"/>
+      <c r="AL119" s="18"/>
       <c r="AM119" s="1">
         <v>0.93632745878339896</v>
       </c>
@@ -7799,33 +8106,31 @@
       <c r="I120" t="s">
         <v>9</v>
       </c>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
       <c r="O120" t="s">
         <v>5</v>
       </c>
       <c r="P120" s="1">
-        <v>1</v>
+        <v>0.95364238410596025</v>
       </c>
       <c r="Q120" s="1">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="R120" s="1">
-        <f t="shared" si="61"/>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="S120" s="1">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.635761589403975E-2</v>
       </c>
       <c r="T120" s="1">
-        <v>0.54121863799283099</v>
+        <v>0.91756272401433603</v>
       </c>
       <c r="AK120" t="s">
         <v>19</v>
       </c>
-      <c r="AL120" s="15" t="s">
+      <c r="AL120" s="18" t="s">
         <v>30</v>
       </c>
       <c r="AM120" s="1">
@@ -7836,72 +8141,68 @@
       </c>
     </row>
     <row r="121" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
       </c>
       <c r="E121" s="1">
-        <f>152/(152+14)</f>
-        <v>0.91566265060240959</v>
+        <f>150/166</f>
+        <v>0.90361445783132532</v>
       </c>
       <c r="F121" s="1">
-        <f>132/142</f>
-        <v>0.92957746478873238</v>
+        <f>131/142</f>
+        <v>0.92253521126760563</v>
       </c>
       <c r="G121" s="1">
         <f>1-F121</f>
-        <v>7.0422535211267623E-2</v>
+        <v>7.7464788732394374E-2</v>
       </c>
       <c r="H121" s="1">
         <f>1-E121</f>
-        <v>8.4337349397590411E-2</v>
+        <v>9.6385542168674676E-2</v>
       </c>
       <c r="I121" s="1">
-        <v>0.92207792207792205</v>
-      </c>
-      <c r="L121" s="15" t="s">
+        <v>0.912337662337662</v>
+      </c>
+      <c r="L121" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M121" s="15" t="s">
+      <c r="M121" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N121" s="15" t="s">
+      <c r="N121" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O121" t="s">
         <v>6</v>
       </c>
       <c r="P121" s="1">
-        <f>191/(191+12)</f>
-        <v>0.94088669950738912</v>
+        <v>0.90147783251231528</v>
       </c>
       <c r="Q121" s="1">
-        <f>118/(118+59)</f>
-        <v>0.66666666666666663</v>
+        <v>0.68361581920903958</v>
       </c>
       <c r="R121" s="1">
-        <f>1-Q121</f>
-        <v>0.33333333333333337</v>
+        <v>0.31638418079096042</v>
       </c>
       <c r="S121" s="1">
-        <f>1-P121</f>
-        <v>5.9113300492610876E-2</v>
+        <v>9.852216748768472E-2</v>
       </c>
       <c r="T121" s="1">
-        <v>0.81315789473684197</v>
+        <v>0.8</v>
       </c>
       <c r="AK121" t="s">
         <v>18</v>
       </c>
-      <c r="AL121" s="15"/>
+      <c r="AL121" s="18"/>
       <c r="AM121" s="1">
         <v>0.96252893518518501</v>
       </c>
@@ -7910,194 +8211,181 @@
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
       <c r="D122" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="1">
-        <f>146/151</f>
-        <v>0.9668874172185431</v>
+        <f>137/151</f>
+        <v>0.9072847682119205</v>
       </c>
       <c r="F122" s="1">
-        <f>111/(111+17)</f>
-        <v>0.8671875</v>
+        <f>118/128</f>
+        <v>0.921875</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" ref="G122:G124" si="63">1-F122</f>
-        <v>0.1328125</v>
+        <f t="shared" ref="G122:G124" si="59">1-F122</f>
+        <v>7.8125E-2</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" ref="H122:H124" si="64">1-E122</f>
-        <v>3.3112582781456901E-2</v>
+        <f t="shared" ref="H122:H124" si="60">1-E122</f>
+        <v>9.27152317880795E-2</v>
       </c>
       <c r="I122" s="1">
-        <v>0.92114695340501795</v>
-      </c>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
+        <v>0.91397849462365499</v>
+      </c>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
       <c r="O122" t="s">
         <v>7</v>
       </c>
       <c r="P122" s="1">
-        <f>193/(193+11)</f>
-        <v>0.94607843137254899</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="Q122" s="1">
-        <f>130/(130+54)</f>
-        <v>0.70652173913043481</v>
+        <v>0.76630434782608692</v>
       </c>
       <c r="R122" s="1">
-        <f t="shared" ref="R122" si="65">1-Q122</f>
-        <v>0.29347826086956519</v>
+        <v>0.23369565217391308</v>
       </c>
       <c r="S122" s="1">
-        <f t="shared" ref="S122" si="66">1-P122</f>
-        <v>5.3921568627451011E-2</v>
+        <v>9.8039215686274495E-2</v>
       </c>
       <c r="T122" s="1">
-        <v>0.83247422680412297</v>
+        <v>0.83762886597938102</v>
       </c>
       <c r="AK122" s="1"/>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C123" s="15"/>
+      <c r="C123" s="18"/>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123" s="1">
-        <f>166/166</f>
-        <v>1</v>
+        <f>147/(147+19)</f>
+        <v>0.88554216867469882</v>
       </c>
       <c r="F123" s="1">
-        <v>0</v>
+        <f>133/142</f>
+        <v>0.93661971830985913</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="63"/>
-        <v>1</v>
+        <f t="shared" si="59"/>
+        <v>6.3380281690140872E-2</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>0.11445783132530118</v>
       </c>
       <c r="I123" s="1">
-        <v>0.53896103896103897</v>
-      </c>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15" t="s">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N123" s="15"/>
+      <c r="N123" s="18"/>
       <c r="O123" t="s">
         <v>6</v>
       </c>
       <c r="P123" s="1">
-        <f>199/(199+4)</f>
-        <v>0.98029556650246308</v>
+        <v>0.96059113300492616</v>
       </c>
       <c r="Q123" s="1">
-        <f>126/(126+51)</f>
-        <v>0.71186440677966101</v>
+        <v>0.71751412429378536</v>
       </c>
       <c r="R123" s="1">
-        <f>1-Q123</f>
-        <v>0.28813559322033899</v>
+        <v>0.28248587570621464</v>
       </c>
       <c r="S123" s="1">
-        <f>1-P123</f>
-        <v>1.9704433497536922E-2</v>
+        <v>3.9408866995073843E-2</v>
       </c>
       <c r="T123" s="1">
-        <v>0.85526315789473595</v>
+        <v>0.84736842105263099</v>
       </c>
       <c r="AK123" s="1"/>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
       <c r="D124" t="s">
         <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>1</v>
+        <f>144/151</f>
+        <v>0.95364238410596025</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <f>112/128</f>
+        <v>0.875</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="63"/>
-        <v>1</v>
+        <f t="shared" si="59"/>
+        <v>0.125</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f t="shared" si="60"/>
+        <v>4.635761589403975E-2</v>
       </c>
       <c r="I124" s="1">
-        <v>0.54121863799283099</v>
-      </c>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
+        <v>0.91756272401433603</v>
+      </c>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
       <c r="O124" t="s">
         <v>7</v>
       </c>
       <c r="P124" s="1">
-        <f>200/(200+4)</f>
-        <v>0.98039215686274506</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="Q124" s="1">
-        <f>147/(147+37)</f>
-        <v>0.79891304347826086</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="R124" s="1">
-        <f>1-Q124</f>
-        <v>0.20108695652173914</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="S124" s="1">
-        <f>1-P124</f>
-        <v>1.9607843137254943E-2</v>
+        <v>2.9411764705882359E-2</v>
       </c>
       <c r="T124" s="1">
-        <v>0.89432989690721598</v>
+        <v>0.902061855670103</v>
       </c>
       <c r="AK124" s="1"/>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="L125" s="15"/>
-      <c r="M125" s="15" t="s">
+      <c r="L125" s="18"/>
+      <c r="M125" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N125" s="15" t="s">
+      <c r="N125" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O125" t="s">
         <v>4</v>
       </c>
       <c r="P125" s="1">
-        <f>103/(103+63)</f>
-        <v>0.62048192771084343</v>
+        <v>0.63253012048192769</v>
       </c>
       <c r="Q125" s="1">
-        <f>118/(118+24)</f>
-        <v>0.83098591549295775</v>
+        <v>0.77464788732394363</v>
       </c>
       <c r="R125" s="1">
-        <f t="shared" ref="R125:R128" si="67">1-Q125</f>
-        <v>0.16901408450704225</v>
+        <v>0.22535211267605637</v>
       </c>
       <c r="S125" s="1">
-        <f t="shared" ref="S125:S128" si="68">1-P125</f>
-        <v>0.37951807228915657</v>
+        <v>0.36746987951807231</v>
       </c>
       <c r="T125" s="1">
-        <v>0.71753246753246702</v>
+        <v>0.69805194805194803</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
@@ -8128,87 +8416,79 @@
       <c r="I126" t="s">
         <v>9</v>
       </c>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
       <c r="O126" t="s">
         <v>5</v>
       </c>
       <c r="P126" s="1">
-        <f>89/(89+62)</f>
-        <v>0.58940397350993379</v>
+        <v>0.54966887417218546</v>
       </c>
       <c r="Q126" s="1">
-        <f>104/(104+24)</f>
-        <v>0.8125</v>
+        <v>0.8046875</v>
       </c>
       <c r="R126" s="1">
-        <f t="shared" si="67"/>
-        <v>0.1875</v>
+        <v>0.1953125</v>
       </c>
       <c r="S126" s="1">
-        <f t="shared" si="68"/>
-        <v>0.41059602649006621</v>
+        <v>0.45033112582781454</v>
       </c>
       <c r="T126" s="1">
-        <v>0.691756272401433</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="AK126" s="1"/>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="1">
-        <f>191/(191+12)</f>
-        <v>0.94088669950738912</v>
+        <f>183/203</f>
+        <v>0.90147783251231528</v>
       </c>
       <c r="F127" s="1">
-        <f>118/(118+59)</f>
-        <v>0.66666666666666663</v>
+        <f>121/(121+56)</f>
+        <v>0.68361581920903958</v>
       </c>
       <c r="G127" s="1">
         <f>1-F127</f>
-        <v>0.33333333333333337</v>
+        <v>0.31638418079096042</v>
       </c>
       <c r="H127" s="1">
         <f>1-E127</f>
-        <v>5.9113300492610876E-2</v>
+        <v>9.852216748768472E-2</v>
       </c>
       <c r="I127" s="1">
-        <v>0.81315789473684197</v>
-      </c>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N127" s="15"/>
+      <c r="N127" s="18"/>
       <c r="O127" t="s">
         <v>4</v>
       </c>
       <c r="P127" s="1">
-        <f>148/(148+18)</f>
         <v>0.89156626506024095</v>
       </c>
       <c r="Q127" s="1">
-        <f>121/(121+21)</f>
         <v>0.852112676056338</v>
       </c>
       <c r="R127" s="1">
-        <f t="shared" si="67"/>
         <v>0.147887323943662</v>
       </c>
       <c r="S127" s="1">
-        <f t="shared" si="68"/>
         <v>0.10843373493975905</v>
       </c>
       <c r="T127" s="1">
@@ -8217,51 +8497,47 @@
       <c r="AK127" s="1"/>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="1">
-        <f>193/(193+11)</f>
-        <v>0.94607843137254899</v>
+        <f>184/204</f>
+        <v>0.90196078431372551</v>
       </c>
       <c r="F128" s="1">
-        <f>130/(130+54)</f>
-        <v>0.70652173913043481</v>
+        <f>141/(141+43)</f>
+        <v>0.76630434782608692</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" ref="G128" si="69">1-F128</f>
-        <v>0.29347826086956519</v>
+        <f t="shared" ref="G128" si="61">1-F128</f>
+        <v>0.23369565217391308</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" ref="H128" si="70">1-E128</f>
-        <v>5.3921568627451011E-2</v>
+        <f t="shared" ref="H128" si="62">1-E128</f>
+        <v>9.8039215686274495E-2</v>
       </c>
       <c r="I128" s="1">
-        <v>0.83247422680412297</v>
-      </c>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
+        <v>0.83762886597938102</v>
+      </c>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
       <c r="O128" t="s">
         <v>5</v>
       </c>
       <c r="P128" s="1">
-        <f>130/(130+21)</f>
         <v>0.86092715231788075</v>
       </c>
       <c r="Q128" s="1">
-        <f>98/(98+30)</f>
         <v>0.765625</v>
       </c>
       <c r="R128" s="1">
-        <f t="shared" si="67"/>
         <v>0.234375</v>
       </c>
       <c r="S128" s="1">
-        <f t="shared" si="68"/>
         <v>0.13907284768211925</v>
       </c>
       <c r="T128" s="1">
@@ -8270,59 +8546,59 @@
       <c r="AK128" s="1"/>
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="15"/>
+      <c r="C129" s="18"/>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="1">
-        <f>199/(199+4)</f>
-        <v>0.98029556650246308</v>
+        <f>195/(195+8)</f>
+        <v>0.96059113300492616</v>
       </c>
       <c r="F129" s="1">
-        <f>126/(126+51)</f>
-        <v>0.71186440677966101</v>
+        <f>127/177</f>
+        <v>0.71751412429378536</v>
       </c>
       <c r="G129" s="1">
         <f>1-F129</f>
-        <v>0.28813559322033899</v>
+        <v>0.28248587570621464</v>
       </c>
       <c r="H129" s="1">
         <f>1-E129</f>
-        <v>1.9704433497536922E-2</v>
+        <v>3.9408866995073843E-2</v>
       </c>
       <c r="I129" s="1">
-        <v>0.85526315789473595</v>
+        <v>0.84736842105263099</v>
       </c>
     </row>
     <row r="130" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="1">
-        <f>200/(200+4)</f>
-        <v>0.98039215686274506</v>
+        <f>198/(198+6)</f>
+        <v>0.97058823529411764</v>
       </c>
       <c r="F130" s="1">
-        <f>147/(147+37)</f>
-        <v>0.79891304347826086</v>
+        <f>152/184</f>
+        <v>0.82608695652173914</v>
       </c>
       <c r="G130" s="1">
         <f>1-F130</f>
-        <v>0.20108695652173914</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="H130" s="1">
         <f>1-E130</f>
-        <v>1.9607843137254943E-2</v>
+        <v>2.9411764705882359E-2</v>
       </c>
       <c r="I130" s="1">
-        <v>0.89432989690721598</v>
+        <v>0.902061855670103</v>
       </c>
       <c r="AK130" s="1"/>
     </row>
@@ -8357,71 +8633,71 @@
       <c r="AK131" s="1"/>
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
       <c r="E132" s="1">
-        <f>103/(103+63)</f>
-        <v>0.62048192771084343</v>
+        <f>105/166</f>
+        <v>0.63253012048192769</v>
       </c>
       <c r="F132" s="1">
-        <f>118/(118+24)</f>
-        <v>0.83098591549295775</v>
+        <f>110/142</f>
+        <v>0.77464788732394363</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" ref="G132:G135" si="71">1-F132</f>
-        <v>0.16901408450704225</v>
+        <f t="shared" ref="G132:G135" si="63">1-F132</f>
+        <v>0.22535211267605637</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" ref="H132:H135" si="72">1-E132</f>
-        <v>0.37951807228915657</v>
+        <f t="shared" ref="H132:H135" si="64">1-E132</f>
+        <v>0.36746987951807231</v>
       </c>
       <c r="I132" s="1">
-        <v>0.71753246753246702</v>
+        <v>0.69805194805194803</v>
       </c>
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
       <c r="D133" t="s">
         <v>5</v>
       </c>
       <c r="E133" s="1">
-        <f>89/(89+62)</f>
-        <v>0.58940397350993379</v>
+        <f>83/(83+68)</f>
+        <v>0.54966887417218546</v>
       </c>
       <c r="F133" s="1">
-        <f>104/(104+24)</f>
-        <v>0.8125</v>
+        <f>103/128</f>
+        <v>0.8046875</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="71"/>
-        <v>0.1875</v>
+        <f t="shared" si="63"/>
+        <v>0.1953125</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="72"/>
-        <v>0.41059602649006621</v>
+        <f t="shared" si="64"/>
+        <v>0.45033112582781454</v>
       </c>
       <c r="I133" s="1">
-        <v>0.691756272401433</v>
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C134" s="15"/>
+      <c r="C134" s="18"/>
       <c r="D134" t="s">
         <v>4</v>
       </c>
@@ -8430,15 +8706,15 @@
         <v>0.89156626506024095</v>
       </c>
       <c r="F134" s="1">
-        <f>121/(121+21)</f>
+        <f>121/142</f>
         <v>0.852112676056338</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>0.147887323943662</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v>0.10843373493975905</v>
       </c>
       <c r="I134" s="1">
@@ -8446,26 +8722,26 @@
       </c>
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
       <c r="D135" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="1">
-        <f>130/(130+21)</f>
+        <f>130/151</f>
         <v>0.86092715231788075</v>
       </c>
       <c r="F135" s="1">
-        <f>98/(98+30)</f>
+        <f>98/128</f>
         <v>0.765625</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>0.234375</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v>0.13907284768211925</v>
       </c>
       <c r="I135" s="1">
@@ -8534,13 +8810,13 @@
       </c>
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D141" t="s">
@@ -8563,13 +8839,13 @@
       <c r="I141" s="1">
         <v>1</v>
       </c>
-      <c r="L141" s="15" t="s">
+      <c r="L141" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="M141" s="15" t="s">
+      <c r="M141" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N141" s="15" t="s">
+      <c r="N141" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O141" t="s">
@@ -8594,9 +8870,9 @@
       </c>
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
       <c r="D142" t="s">
         <v>7</v>
       </c>
@@ -8607,19 +8883,19 @@
         <v>1</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" ref="G142:G144" si="73">1-F142</f>
+        <f t="shared" ref="G142:G144" si="65">1-F142</f>
         <v>0</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" ref="H142:H144" si="74">1-E142</f>
+        <f t="shared" ref="H142:H144" si="66">1-E142</f>
         <v>0</v>
       </c>
       <c r="I142" s="1">
         <v>1</v>
       </c>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
       <c r="O142" t="s">
         <v>7</v>
       </c>
@@ -8630,11 +8906,11 @@
         <v>1</v>
       </c>
       <c r="R142" s="1">
-        <f t="shared" ref="R142:R144" si="75">1-Q142</f>
+        <f t="shared" ref="R142:R144" si="67">1-Q142</f>
         <v>0</v>
       </c>
       <c r="S142" s="1">
-        <f t="shared" ref="S142:S144" si="76">1-P142</f>
+        <f t="shared" ref="S142:S144" si="68">1-P142</f>
         <v>0</v>
       </c>
       <c r="T142" s="1">
@@ -8642,11 +8918,11 @@
       </c>
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="18"/>
+      <c r="B143" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C143" s="15"/>
+      <c r="C143" s="18"/>
       <c r="D143" t="s">
         <v>6</v>
       </c>
@@ -8657,21 +8933,21 @@
         <v>1</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I143" s="1">
         <v>1</v>
       </c>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15" t="s">
+      <c r="L143" s="18"/>
+      <c r="M143" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N143" s="15"/>
+      <c r="N143" s="18"/>
       <c r="O143" t="s">
         <v>6</v>
       </c>
@@ -8682,11 +8958,11 @@
         <v>1</v>
       </c>
       <c r="R143" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T143" s="1">
@@ -8694,9 +8970,9 @@
       </c>
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
       <c r="D144" t="s">
         <v>7</v>
       </c>
@@ -8707,19 +8983,19 @@
         <v>1</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I144" s="1">
         <v>1</v>
       </c>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
       <c r="O144" t="s">
         <v>7</v>
       </c>
@@ -8730,11 +9006,11 @@
         <v>1</v>
       </c>
       <c r="R144" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S144" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T144" s="1">
@@ -8769,11 +9045,11 @@
       <c r="I145" t="s">
         <v>9</v>
       </c>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15" t="s">
+      <c r="L145" s="18"/>
+      <c r="M145" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N145" s="15" t="s">
+      <c r="N145" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O145" t="s">
@@ -8798,13 +9074,13 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D146" t="s">
@@ -8827,9 +9103,9 @@
       <c r="I146" s="1">
         <v>1</v>
       </c>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
       <c r="O146" t="s">
         <v>5</v>
       </c>
@@ -8840,11 +9116,11 @@
         <v>1</v>
       </c>
       <c r="R146" s="1">
-        <f t="shared" ref="R146:R148" si="77">1-Q146</f>
+        <f t="shared" ref="R146:R148" si="69">1-Q146</f>
         <v>0</v>
       </c>
       <c r="S146" s="1">
-        <f t="shared" ref="S146:S148" si="78">1-P146</f>
+        <f t="shared" ref="S146:S148" si="70">1-P146</f>
         <v>0</v>
       </c>
       <c r="T146" s="1">
@@ -8852,9 +9128,9 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
       <c r="D147" t="s">
         <v>5</v>
       </c>
@@ -8865,21 +9141,21 @@
         <v>1</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" ref="G147:G149" si="79">1-F147</f>
+        <f t="shared" ref="G147:G149" si="71">1-F147</f>
         <v>0</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" ref="H147:H149" si="80">1-E147</f>
+        <f t="shared" ref="H147:H149" si="72">1-E147</f>
         <v>0</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
       </c>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15" t="s">
+      <c r="L147" s="18"/>
+      <c r="M147" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N147" s="15"/>
+      <c r="N147" s="18"/>
       <c r="O147" t="s">
         <v>4</v>
       </c>
@@ -8890,11 +9166,11 @@
         <v>1</v>
       </c>
       <c r="R147" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S147" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T147" s="1">
@@ -8902,11 +9178,11 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="18"/>
+      <c r="B148" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C148" s="15"/>
+      <c r="C148" s="18"/>
       <c r="D148" t="s">
         <v>4</v>
       </c>
@@ -8917,19 +9193,19 @@
         <v>1</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I148" s="1">
         <v>1</v>
       </c>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
       <c r="O148" t="s">
         <v>5</v>
       </c>
@@ -8940,11 +9216,11 @@
         <v>1</v>
       </c>
       <c r="R148" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S148" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T148" s="1">
@@ -8952,9 +9228,9 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
       <c r="D149" t="s">
         <v>5</v>
       </c>
@@ -8965,23 +9241,23 @@
         <v>1</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I149" s="1">
         <v>1</v>
       </c>
-      <c r="L149" s="15" t="s">
+      <c r="L149" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M149" s="15" t="s">
+      <c r="M149" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N149" s="15" t="s">
+      <c r="N149" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O149" t="s">
@@ -9008,9 +9284,9 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
       <c r="O150" t="s">
         <v>7</v>
       </c>
@@ -9023,11 +9299,11 @@
         <v>0.91952232606438211</v>
       </c>
       <c r="R150" s="1">
-        <f t="shared" ref="R150:R152" si="81">1-Q150</f>
+        <f t="shared" ref="R150:R152" si="73">1-Q150</f>
         <v>8.0477673935617888E-2</v>
       </c>
       <c r="S150" s="1">
-        <f t="shared" ref="S150:S152" si="82">1-P150</f>
+        <f t="shared" ref="S150:S152" si="74">1-P150</f>
         <v>7.9563182527301102E-2</v>
       </c>
       <c r="T150" s="1">
@@ -9062,11 +9338,11 @@
       <c r="I151" t="s">
         <v>9</v>
       </c>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15" t="s">
+      <c r="L151" s="18"/>
+      <c r="M151" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N151" s="15"/>
+      <c r="N151" s="18"/>
       <c r="O151" t="s">
         <v>6</v>
       </c>
@@ -9079,11 +9355,11 @@
         <v>0.95772442588726514</v>
       </c>
       <c r="R151" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="73"/>
         <v>4.2275574112734859E-2</v>
       </c>
       <c r="S151" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="74"/>
         <v>5.4308093994778095E-2</v>
       </c>
       <c r="T151" s="1">
@@ -9091,13 +9367,13 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D152" t="s">
@@ -9122,9 +9398,9 @@
       <c r="I152" s="1">
         <v>0.94909945184025002</v>
       </c>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
       <c r="O152" t="s">
         <v>7</v>
       </c>
@@ -9137,11 +9413,11 @@
         <v>0.88681204569055039</v>
       </c>
       <c r="R152" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="73"/>
         <v>0.11318795430944961</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="74"/>
         <v>3.952158086323454E-2</v>
       </c>
       <c r="T152" s="1">
@@ -9149,9 +9425,9 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
       <c r="D153" t="s">
         <v>7</v>
       </c>
@@ -9164,21 +9440,21 @@
         <v>0.91952232606438211</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" ref="G153:G155" si="83">1-F153</f>
+        <f t="shared" ref="G153:G155" si="75">1-F153</f>
         <v>8.0477673935617888E-2</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" ref="H153:H155" si="84">1-E153</f>
+        <f t="shared" ref="H153:H155" si="76">1-E153</f>
         <v>7.9563182527301102E-2</v>
       </c>
       <c r="I153" s="1">
         <v>0.919979215380618</v>
       </c>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15" t="s">
+      <c r="L153" s="18"/>
+      <c r="M153" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N153" s="15" t="s">
+      <c r="N153" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O153" t="s">
@@ -9205,11 +9481,11 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C154" s="15"/>
+      <c r="C154" s="18"/>
       <c r="D154" t="s">
         <v>6</v>
       </c>
@@ -9222,19 +9498,19 @@
         <v>0.95772442588726514</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="75"/>
         <v>4.2275574112734859E-2</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="76"/>
         <v>5.4308093994778095E-2</v>
       </c>
       <c r="I154" s="1">
         <v>0.95170973636126299</v>
       </c>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-      <c r="N154" s="15"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
       <c r="O154" t="s">
         <v>5</v>
       </c>
@@ -9247,11 +9523,11 @@
         <v>0.88070692194403533</v>
       </c>
       <c r="R154" s="1">
-        <f t="shared" ref="R154:R156" si="85">1-Q154</f>
+        <f t="shared" ref="R154:R156" si="77">1-Q154</f>
         <v>0.11929307805596467</v>
       </c>
       <c r="S154" s="1">
-        <f t="shared" ref="S154:S156" si="86">1-P154</f>
+        <f t="shared" ref="S154:S156" si="78">1-P154</f>
         <v>0.20307048150732732</v>
       </c>
       <c r="T154" s="1">
@@ -9259,9 +9535,9 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
       <c r="D155" t="s">
         <v>7</v>
       </c>
@@ -9274,21 +9550,21 @@
         <v>0.88681204569055039</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="75"/>
         <v>0.11318795430944961</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="76"/>
         <v>3.952158086323454E-2</v>
       </c>
       <c r="I155" s="1">
         <v>0.92361652377240799</v>
       </c>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15" t="s">
+      <c r="L155" s="18"/>
+      <c r="M155" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N155" s="15"/>
+      <c r="N155" s="18"/>
       <c r="O155" t="s">
         <v>4</v>
       </c>
@@ -9301,11 +9577,11 @@
         <v>0.91831357048748352</v>
       </c>
       <c r="R155" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v>8.1686429512516479E-2</v>
       </c>
       <c r="S155" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="78"/>
         <v>3.086816720257235E-2</v>
       </c>
       <c r="T155" s="1">
@@ -9340,9 +9616,9 @@
       <c r="I156" t="s">
         <v>9</v>
       </c>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
       <c r="O156" t="s">
         <v>5</v>
       </c>
@@ -9355,11 +9631,11 @@
         <v>0.83284241531664216</v>
       </c>
       <c r="R156" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="77"/>
         <v>0.16715758468335784</v>
       </c>
       <c r="S156" s="1">
-        <f t="shared" si="86"/>
+        <f t="shared" si="78"/>
         <v>8.1646894626657307E-2</v>
       </c>
       <c r="T156" s="1">
@@ -9367,13 +9643,13 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A157" s="15" t="s">
+      <c r="A157" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D157" t="s">
@@ -9398,13 +9674,13 @@
       <c r="I157" s="1">
         <v>0.91116173120728905</v>
       </c>
-      <c r="L157" s="15" t="s">
+      <c r="L157" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M157" s="15" t="s">
+      <c r="M157" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N157" s="15" t="s">
+      <c r="N157" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O157" t="s">
@@ -9427,9 +9703,9 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
       <c r="D158" t="s">
         <v>5</v>
       </c>
@@ -9442,19 +9718,19 @@
         <v>0.88070692194403533</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" ref="G158:G160" si="87">1-F158</f>
+        <f t="shared" ref="G158:G160" si="79">1-F158</f>
         <v>0.11929307805596467</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" ref="H158:H160" si="88">1-E158</f>
+        <f t="shared" ref="H158:H160" si="80">1-E158</f>
         <v>0.20307048150732732</v>
       </c>
       <c r="I158" s="1">
         <v>0.83769258330347496</v>
       </c>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
       <c r="O158" t="s">
         <v>7</v>
       </c>
@@ -9475,11 +9751,11 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C159" s="15"/>
+      <c r="C159" s="18"/>
       <c r="D159" t="s">
         <v>4</v>
       </c>
@@ -9492,21 +9768,21 @@
         <v>0.91831357048748352</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="79"/>
         <v>8.1686429512516479E-2</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>3.086816720257235E-2</v>
       </c>
       <c r="I159" s="1">
         <v>0.944028636511552</v>
       </c>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15" t="s">
+      <c r="L159" s="18"/>
+      <c r="M159" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N159" s="15"/>
+      <c r="N159" s="18"/>
       <c r="O159" t="s">
         <v>6</v>
       </c>
@@ -9527,9 +9803,9 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
       <c r="D160" t="s">
         <v>5</v>
       </c>
@@ -9542,19 +9818,19 @@
         <v>0.83284241531664216</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="87"/>
+        <f t="shared" si="79"/>
         <v>0.16715758468335784</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="80"/>
         <v>8.1646894626657307E-2</v>
       </c>
       <c r="I160" s="1">
         <v>0.87674668577570702</v>
       </c>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
       <c r="O160" t="s">
         <v>7</v>
       </c>
@@ -9575,11 +9851,11 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L161" s="15"/>
-      <c r="M161" s="15" t="s">
+      <c r="L161" s="18"/>
+      <c r="M161" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N161" s="15" t="s">
+      <c r="N161" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O161" t="s">
@@ -9629,9 +9905,9 @@
       <c r="I162" t="s">
         <v>9</v>
       </c>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
       <c r="O162" t="s">
         <v>5</v>
       </c>
@@ -9652,13 +9928,13 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D163" t="s">
@@ -9683,11 +9959,11 @@
       <c r="I163" s="1">
         <v>0.95040459410075695</v>
       </c>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15" t="s">
+      <c r="L163" s="18"/>
+      <c r="M163" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N163" s="15"/>
+      <c r="N163" s="18"/>
       <c r="O163" t="s">
         <v>4</v>
       </c>
@@ -9708,9 +9984,9 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
       <c r="D164" t="s">
         <v>7</v>
       </c>
@@ -9723,19 +9999,19 @@
         <v>0.98026998961578404</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" ref="G164" si="89">1-F164</f>
+        <f t="shared" ref="G164" si="81">1-F164</f>
         <v>1.9730010384215957E-2</v>
       </c>
       <c r="H164" s="1">
-        <f t="shared" ref="H164" si="90">1-E164</f>
+        <f t="shared" ref="H164" si="82">1-E164</f>
         <v>6.2922516900676073E-2</v>
       </c>
       <c r="I164" s="1">
         <v>0.95869056897895499</v>
       </c>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18"/>
       <c r="O164" t="s">
         <v>5</v>
       </c>
@@ -9756,11 +10032,11 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15" t="s">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C165" s="15"/>
+      <c r="C165" s="18"/>
       <c r="D165" t="s">
         <v>6</v>
       </c>
@@ -9785,9 +10061,9 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
       <c r="D166" t="s">
         <v>7</v>
       </c>
@@ -9841,13 +10117,13 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D168" t="s">
@@ -9862,11 +10138,11 @@
         <v>0.94400527009222657</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" ref="G168:G171" si="91">1-F168</f>
+        <f t="shared" ref="G168:G171" si="83">1-F168</f>
         <v>5.5994729907773433E-2</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" ref="H168:H171" si="92">1-E168</f>
+        <f t="shared" ref="H168:H171" si="84">1-E168</f>
         <v>5.4662379421221874E-2</v>
       </c>
       <c r="I168" s="1">
@@ -9874,9 +10150,9 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="15"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
       <c r="D169" t="s">
         <v>5</v>
       </c>
@@ -9889,11 +10165,11 @@
         <v>0.98969072164948457</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="83"/>
         <v>1.0309278350515427E-2</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="84"/>
         <v>0.11235170969993025</v>
       </c>
       <c r="I169" s="1">
@@ -9901,11 +10177,11 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15" t="s">
+      <c r="A170" s="18"/>
+      <c r="B170" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="15"/>
+      <c r="C170" s="18"/>
       <c r="D170" t="s">
         <v>4</v>
       </c>
@@ -9918,11 +10194,11 @@
         <v>0.98880105401844531</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="83"/>
         <v>1.1198945981554687E-2</v>
       </c>
       <c r="H170" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="84"/>
         <v>0.13311897106109327</v>
       </c>
       <c r="I170" s="1">
@@ -9930,9 +10206,9 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
       <c r="D171" t="s">
         <v>5</v>
       </c>
@@ -9945,11 +10221,11 @@
         <v>1</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="84"/>
         <v>0.23517096999302167</v>
       </c>
       <c r="I171" s="1">
@@ -10018,13 +10294,13 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A175" s="15" t="s">
+      <c r="A175" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C175" s="15" t="s">
+      <c r="C175" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D175" t="s">
@@ -10047,13 +10323,13 @@
       <c r="I175" s="1">
         <v>1</v>
       </c>
-      <c r="L175" s="15" t="s">
+      <c r="L175" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="M175" s="15" t="s">
+      <c r="M175" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N175" s="15" t="s">
+      <c r="N175" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O175" t="s">
@@ -10078,9 +10354,9 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A176" s="15"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
       <c r="D176" t="s">
         <v>7</v>
       </c>
@@ -10091,19 +10367,19 @@
         <v>1</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" ref="G176:G178" si="93">1-F176</f>
+        <f t="shared" ref="G176:G178" si="85">1-F176</f>
         <v>0</v>
       </c>
       <c r="H176" s="1">
-        <f t="shared" ref="H176:H178" si="94">1-E176</f>
+        <f t="shared" ref="H176:H178" si="86">1-E176</f>
         <v>0</v>
       </c>
       <c r="I176" s="1">
         <v>1</v>
       </c>
-      <c r="L176" s="15"/>
-      <c r="M176" s="15"/>
-      <c r="N176" s="15"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
       <c r="O176" t="s">
         <v>7</v>
       </c>
@@ -10114,11 +10390,11 @@
         <v>1</v>
       </c>
       <c r="R176" s="1">
-        <f t="shared" ref="R176:R178" si="95">1-Q176</f>
+        <f t="shared" ref="R176:R178" si="87">1-Q176</f>
         <v>0</v>
       </c>
       <c r="S176" s="1">
-        <f t="shared" ref="S176:S178" si="96">1-P176</f>
+        <f t="shared" ref="S176:S178" si="88">1-P176</f>
         <v>0</v>
       </c>
       <c r="T176" s="1">
@@ -10126,11 +10402,11 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
-      <c r="B177" s="15" t="s">
+      <c r="A177" s="18"/>
+      <c r="B177" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C177" s="15"/>
+      <c r="C177" s="18"/>
       <c r="D177" t="s">
         <v>6</v>
       </c>
@@ -10141,21 +10417,21 @@
         <v>1</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H177" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I177" s="1">
         <v>1</v>
       </c>
-      <c r="L177" s="15"/>
-      <c r="M177" s="15" t="s">
+      <c r="L177" s="18"/>
+      <c r="M177" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N177" s="15"/>
+      <c r="N177" s="18"/>
       <c r="O177" t="s">
         <v>6</v>
       </c>
@@ -10166,11 +10442,11 @@
         <v>1</v>
       </c>
       <c r="R177" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S177" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T177" s="1">
@@ -10178,9 +10454,9 @@
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="15"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
       <c r="D178" t="s">
         <v>7</v>
       </c>
@@ -10191,19 +10467,19 @@
         <v>1</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="I178" s="1">
         <v>1</v>
       </c>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
-      <c r="N178" s="15"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
       <c r="O178" t="s">
         <v>7</v>
       </c>
@@ -10214,11 +10490,11 @@
         <v>1</v>
       </c>
       <c r="R178" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="S178" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T178" s="1">
@@ -10253,11 +10529,11 @@
       <c r="I179" t="s">
         <v>9</v>
       </c>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15" t="s">
+      <c r="L179" s="18"/>
+      <c r="M179" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N179" s="15" t="s">
+      <c r="N179" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O179" t="s">
@@ -10282,13 +10558,13 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A180" s="15" t="s">
+      <c r="A180" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="15" t="s">
+      <c r="C180" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D180" t="s">
@@ -10311,9 +10587,9 @@
       <c r="I180" s="1">
         <v>1</v>
       </c>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
       <c r="O180" t="s">
         <v>5</v>
       </c>
@@ -10324,11 +10600,11 @@
         <v>1</v>
       </c>
       <c r="R180" s="1">
-        <f t="shared" ref="R180:R182" si="97">1-Q180</f>
+        <f t="shared" ref="R180:R182" si="89">1-Q180</f>
         <v>0</v>
       </c>
       <c r="S180" s="1">
-        <f t="shared" ref="S180:S182" si="98">1-P180</f>
+        <f t="shared" ref="S180:S182" si="90">1-P180</f>
         <v>0</v>
       </c>
       <c r="T180" s="1">
@@ -10336,9 +10612,9 @@
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
       <c r="D181" t="s">
         <v>5</v>
       </c>
@@ -10349,21 +10625,21 @@
         <v>1</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" ref="G181:G183" si="99">1-F181</f>
+        <f t="shared" ref="G181:G183" si="91">1-F181</f>
         <v>0</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" ref="H181:H183" si="100">1-E181</f>
+        <f t="shared" ref="H181:H183" si="92">1-E181</f>
         <v>0</v>
       </c>
       <c r="I181" s="1">
         <v>1</v>
       </c>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15" t="s">
+      <c r="L181" s="18"/>
+      <c r="M181" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N181" s="15"/>
+      <c r="N181" s="18"/>
       <c r="O181" t="s">
         <v>4</v>
       </c>
@@ -10374,11 +10650,11 @@
         <v>1</v>
       </c>
       <c r="R181" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S181" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="T181" s="1">
@@ -10386,11 +10662,11 @@
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
-      <c r="B182" s="15" t="s">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C182" s="15"/>
+      <c r="C182" s="18"/>
       <c r="D182" t="s">
         <v>4</v>
       </c>
@@ -10401,19 +10677,19 @@
         <v>1</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I182" s="1">
         <v>1</v>
       </c>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
-      <c r="N182" s="15"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="18"/>
       <c r="O182" t="s">
         <v>5</v>
       </c>
@@ -10424,11 +10700,11 @@
         <v>1</v>
       </c>
       <c r="R182" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S182" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="T182" s="1">
@@ -10436,9 +10712,9 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
       <c r="D183" t="s">
         <v>5</v>
       </c>
@@ -10449,23 +10725,23 @@
         <v>1</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I183" s="1">
         <v>1</v>
       </c>
-      <c r="L183" s="15" t="s">
+      <c r="L183" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M183" s="15" t="s">
+      <c r="M183" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N183" s="15" t="s">
+      <c r="N183" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O183" t="s">
@@ -10492,9 +10768,9 @@
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L184" s="15"/>
-      <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
       <c r="O184" t="s">
         <v>7</v>
       </c>
@@ -10507,11 +10783,11 @@
         <v>0.97282608695652173</v>
       </c>
       <c r="R184" s="1">
-        <f t="shared" ref="R184:R186" si="101">1-Q184</f>
+        <f t="shared" ref="R184:R186" si="93">1-Q184</f>
         <v>2.7173913043478271E-2</v>
       </c>
       <c r="S184" s="1">
-        <f t="shared" ref="S184:S186" si="102">1-P184</f>
+        <f t="shared" ref="S184:S186" si="94">1-P184</f>
         <v>5.3921568627451011E-2</v>
       </c>
       <c r="T184" s="1">
@@ -10546,11 +10822,11 @@
       <c r="I185" t="s">
         <v>9</v>
       </c>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15" t="s">
+      <c r="L185" s="18"/>
+      <c r="M185" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N185" s="15"/>
+      <c r="N185" s="18"/>
       <c r="O185" t="s">
         <v>6</v>
       </c>
@@ -10563,11 +10839,11 @@
         <v>0.94915254237288138</v>
       </c>
       <c r="R185" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>5.084745762711862E-2</v>
       </c>
       <c r="S185" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>4.4334975369458074E-2</v>
       </c>
       <c r="T185" s="1">
@@ -10575,13 +10851,13 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C186" s="15" t="s">
+      <c r="C186" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D186" t="s">
@@ -10606,9 +10882,9 @@
       <c r="I186" s="1">
         <v>0.94736842105263097</v>
       </c>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
       <c r="O186" t="s">
         <v>7</v>
       </c>
@@ -10621,11 +10897,11 @@
         <v>0.94021739130434778</v>
       </c>
       <c r="R186" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" si="93"/>
         <v>5.9782608695652217E-2</v>
       </c>
       <c r="S186" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="94"/>
         <v>4.4117647058823484E-2</v>
       </c>
       <c r="T186" s="1">
@@ -10633,9 +10909,9 @@
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
       <c r="D187" t="s">
         <v>7</v>
       </c>
@@ -10648,21 +10924,21 @@
         <v>0.97282608695652173</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" ref="G187:G189" si="103">1-F187</f>
+        <f t="shared" ref="G187:G189" si="95">1-F187</f>
         <v>2.7173913043478271E-2</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" ref="H187:H189" si="104">1-E187</f>
+        <f t="shared" ref="H187:H189" si="96">1-E187</f>
         <v>5.3921568627451011E-2</v>
       </c>
       <c r="I187" s="1">
         <v>0.95876288659793796</v>
       </c>
-      <c r="L187" s="15"/>
-      <c r="M187" s="15" t="s">
+      <c r="L187" s="18"/>
+      <c r="M187" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N187" s="15" t="s">
+      <c r="N187" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O187" t="s">
@@ -10689,11 +10965,11 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15" t="s">
+      <c r="A188" s="18"/>
+      <c r="B188" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="15"/>
+      <c r="C188" s="18"/>
       <c r="D188" t="s">
         <v>6</v>
       </c>
@@ -10706,19 +10982,19 @@
         <v>0.94915254237288138</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>5.084745762711862E-2</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="96"/>
         <v>4.4334975369458074E-2</v>
       </c>
       <c r="I188" s="1">
         <v>0.95263157894736805</v>
       </c>
-      <c r="L188" s="15"/>
-      <c r="M188" s="15"/>
-      <c r="N188" s="15"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
       <c r="O188" t="s">
         <v>5</v>
       </c>
@@ -10743,9 +11019,9 @@
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
       <c r="D189" t="s">
         <v>7</v>
       </c>
@@ -10758,21 +11034,21 @@
         <v>0.94021739130434778</v>
       </c>
       <c r="G189" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="95"/>
         <v>5.9782608695652217E-2</v>
       </c>
       <c r="H189" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="96"/>
         <v>4.4117647058823484E-2</v>
       </c>
       <c r="I189" s="1">
         <v>0.94845360824742198</v>
       </c>
-      <c r="L189" s="15"/>
-      <c r="M189" s="15" t="s">
+      <c r="L189" s="18"/>
+      <c r="M189" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N189" s="15"/>
+      <c r="N189" s="18"/>
       <c r="O189" t="s">
         <v>4</v>
       </c>
@@ -10785,11 +11061,11 @@
         <v>0.91549295774647887</v>
       </c>
       <c r="R189" s="1">
-        <f t="shared" ref="R189:R190" si="105">1-Q189</f>
+        <f t="shared" ref="R189:R190" si="97">1-Q189</f>
         <v>8.4507042253521125E-2</v>
       </c>
       <c r="S189" s="1">
-        <f t="shared" ref="S189:S190" si="106">1-P189</f>
+        <f t="shared" ref="S189:S190" si="98">1-P189</f>
         <v>6.0240963855421659E-2</v>
       </c>
       <c r="T189" s="1">
@@ -10824,9 +11100,9 @@
       <c r="I190" t="s">
         <v>9</v>
       </c>
-      <c r="L190" s="15"/>
-      <c r="M190" s="15"/>
-      <c r="N190" s="15"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+      <c r="N190" s="18"/>
       <c r="O190" t="s">
         <v>5</v>
       </c>
@@ -10839,11 +11115,11 @@
         <v>0.78125</v>
       </c>
       <c r="R190" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="97"/>
         <v>0.21875</v>
       </c>
       <c r="S190" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" si="98"/>
         <v>1.9867549668874163E-2</v>
       </c>
       <c r="T190" s="1">
@@ -10851,13 +11127,13 @@
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="C191" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D191" t="s">
@@ -10882,13 +11158,13 @@
       <c r="I191" s="1">
         <v>0.912337662337662</v>
       </c>
-      <c r="L191" s="15" t="s">
+      <c r="L191" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M191" s="15" t="s">
+      <c r="M191" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N191" s="15" t="s">
+      <c r="N191" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O191" t="s">
@@ -10915,9 +11191,9 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
       <c r="D192" t="s">
         <v>5</v>
       </c>
@@ -10940,9 +11216,9 @@
       <c r="I192" s="1">
         <v>0.89247311827956899</v>
       </c>
-      <c r="L192" s="15"/>
-      <c r="M192" s="15"/>
-      <c r="N192" s="15"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
       <c r="O192" t="s">
         <v>7</v>
       </c>
@@ -10955,11 +11231,11 @@
         <v>0.98369565217391308</v>
       </c>
       <c r="R192" s="1">
-        <f t="shared" ref="R192" si="107">1-Q192</f>
+        <f t="shared" ref="R192" si="99">1-Q192</f>
         <v>1.6304347826086918E-2</v>
       </c>
       <c r="S192" s="1">
-        <f t="shared" ref="S192" si="108">1-P192</f>
+        <f t="shared" ref="S192" si="100">1-P192</f>
         <v>4.4117647058823484E-2</v>
       </c>
       <c r="T192" s="1">
@@ -10967,11 +11243,11 @@
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
-      <c r="B193" s="15" t="s">
+      <c r="A193" s="18"/>
+      <c r="B193" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C193" s="15"/>
+      <c r="C193" s="18"/>
       <c r="D193" t="s">
         <v>4</v>
       </c>
@@ -10984,21 +11260,21 @@
         <v>0.91549295774647887</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" ref="G193:G194" si="109">1-F193</f>
+        <f t="shared" ref="G193:G194" si="101">1-F193</f>
         <v>8.4507042253521125E-2</v>
       </c>
       <c r="H193" s="1">
-        <f t="shared" ref="H193:H194" si="110">1-E193</f>
+        <f t="shared" ref="H193:H194" si="102">1-E193</f>
         <v>6.0240963855421659E-2</v>
       </c>
       <c r="I193" s="1">
         <v>0.92857142857142805</v>
       </c>
-      <c r="L193" s="15"/>
-      <c r="M193" s="15" t="s">
+      <c r="L193" s="18"/>
+      <c r="M193" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N193" s="15"/>
+      <c r="N193" s="18"/>
       <c r="O193" t="s">
         <v>6</v>
       </c>
@@ -11023,9 +11299,9 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
+      <c r="A194" s="18"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
       <c r="D194" t="s">
         <v>5</v>
       </c>
@@ -11038,19 +11314,19 @@
         <v>0.78125</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="101"/>
         <v>0.21875</v>
       </c>
       <c r="H194" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="102"/>
         <v>1.9867549668874163E-2</v>
       </c>
       <c r="I194" s="1">
         <v>0.88888888888888795</v>
       </c>
-      <c r="L194" s="15"/>
-      <c r="M194" s="15"/>
-      <c r="N194" s="15"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="18"/>
       <c r="O194" t="s">
         <v>7</v>
       </c>
@@ -11075,11 +11351,11 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L195" s="15"/>
-      <c r="M195" s="15" t="s">
+      <c r="L195" s="18"/>
+      <c r="M195" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N195" s="15" t="s">
+      <c r="N195" s="18" t="s">
         <v>28</v>
       </c>
       <c r="O195" t="s">
@@ -11133,9 +11409,9 @@
       <c r="I196" t="s">
         <v>9</v>
       </c>
-      <c r="L196" s="15"/>
-      <c r="M196" s="15"/>
-      <c r="N196" s="15"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="18"/>
       <c r="O196" t="s">
         <v>5</v>
       </c>
@@ -11160,13 +11436,13 @@
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D197" t="s">
@@ -11191,11 +11467,11 @@
       <c r="I197" s="1">
         <v>0.94473684210526299</v>
       </c>
-      <c r="L197" s="15"/>
-      <c r="M197" s="15" t="s">
+      <c r="L197" s="18"/>
+      <c r="M197" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N197" s="15"/>
+      <c r="N197" s="18"/>
       <c r="O197" t="s">
         <v>4</v>
       </c>
@@ -11208,11 +11484,11 @@
         <v>0.92957746478873238</v>
       </c>
       <c r="R197" s="1">
-        <f t="shared" ref="R197:R198" si="111">1-Q197</f>
+        <f t="shared" ref="R197:R198" si="103">1-Q197</f>
         <v>7.0422535211267623E-2</v>
       </c>
       <c r="S197" s="1">
-        <f t="shared" ref="S197:S198" si="112">1-P197</f>
+        <f t="shared" ref="S197:S198" si="104">1-P197</f>
         <v>0.10843373493975905</v>
       </c>
       <c r="T197" s="1">
@@ -11220,9 +11496,9 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
       <c r="D198" t="s">
         <v>7</v>
       </c>
@@ -11235,19 +11511,19 @@
         <v>0.98369565217391308</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" ref="G198" si="113">1-F198</f>
+        <f t="shared" ref="G198" si="105">1-F198</f>
         <v>1.6304347826086918E-2</v>
       </c>
       <c r="H198" s="1">
-        <f t="shared" ref="H198" si="114">1-E198</f>
+        <f t="shared" ref="H198" si="106">1-E198</f>
         <v>4.4117647058823484E-2</v>
       </c>
       <c r="I198" s="1">
         <v>0.96907216494845305</v>
       </c>
-      <c r="L198" s="15"/>
-      <c r="M198" s="15"/>
-      <c r="N198" s="15"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
       <c r="O198" t="s">
         <v>5</v>
       </c>
@@ -11260,11 +11536,11 @@
         <v>0.875</v>
       </c>
       <c r="R198" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="103"/>
         <v>0.125</v>
       </c>
       <c r="S198" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="104"/>
         <v>3.9735099337748325E-2</v>
       </c>
       <c r="T198" s="1">
@@ -11272,11 +11548,11 @@
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="18"/>
+      <c r="B199" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C199" s="15"/>
+      <c r="C199" s="18"/>
       <c r="D199" t="s">
         <v>6</v>
       </c>
@@ -11301,9 +11577,9 @@
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
+      <c r="A200" s="18"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
       <c r="D200" t="s">
         <v>7</v>
       </c>
@@ -11357,13 +11633,13 @@
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D202" t="s">
@@ -11390,9 +11666,9 @@
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
       <c r="D203" t="s">
         <v>5</v>
       </c>
@@ -11417,11 +11693,11 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A204" s="15"/>
-      <c r="B204" s="15" t="s">
+      <c r="A204" s="18"/>
+      <c r="B204" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C204" s="15"/>
+      <c r="C204" s="18"/>
       <c r="D204" t="s">
         <v>4</v>
       </c>
@@ -11434,11 +11710,11 @@
         <v>0.92957746478873238</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" ref="G204:G205" si="115">1-F204</f>
+        <f t="shared" ref="G204:G205" si="107">1-F204</f>
         <v>7.0422535211267623E-2</v>
       </c>
       <c r="H204" s="1">
-        <f t="shared" ref="H204:H205" si="116">1-E204</f>
+        <f t="shared" ref="H204:H205" si="108">1-E204</f>
         <v>0.10843373493975905</v>
       </c>
       <c r="I204" s="1">
@@ -11446,9 +11722,9 @@
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
       <c r="D205" t="s">
         <v>5</v>
       </c>
@@ -11461,24 +11737,85 @@
         <v>0.875</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="115"/>
+        <f t="shared" si="107"/>
         <v>0.125</v>
       </c>
       <c r="H205" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="108"/>
         <v>3.9735099337748325E-2</v>
       </c>
       <c r="I205" s="1">
         <v>0.92114695340501795</v>
       </c>
     </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>25</v>
+      </c>
+      <c r="B209" t="s">
+        <v>26</v>
+      </c>
+      <c r="C209" t="s">
+        <v>87</v>
+      </c>
+      <c r="D209" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" s="17">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="D210" s="1">
+        <v>5.0484580000000001E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="18"/>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="17">
+        <v>0.40894999999999998</v>
+      </c>
+      <c r="D211" s="1">
+        <v>5.2539950000000002E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" s="17">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="D212" s="1">
+        <v>4.7400879999999999E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="18"/>
+      <c r="B213" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="17">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4.901734E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="194">
-    <mergeCell ref="N121:N124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="N125:N128"/>
-    <mergeCell ref="M127:M128"/>
+  <mergeCells count="200">
     <mergeCell ref="L191:L198"/>
     <mergeCell ref="M191:M192"/>
     <mergeCell ref="N191:N194"/>
@@ -11493,11 +11830,6 @@
     <mergeCell ref="M187:M188"/>
     <mergeCell ref="N187:N190"/>
     <mergeCell ref="M189:M190"/>
-    <mergeCell ref="L175:L182"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="N175:N178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="M179:M180"/>
     <mergeCell ref="N179:N182"/>
     <mergeCell ref="M181:M182"/>
     <mergeCell ref="M157:M158"/>
@@ -11507,6 +11839,11 @@
     <mergeCell ref="N161:N164"/>
     <mergeCell ref="M163:M164"/>
     <mergeCell ref="L157:L164"/>
+    <mergeCell ref="L175:L182"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="N175:N178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="M179:M180"/>
     <mergeCell ref="M149:M150"/>
     <mergeCell ref="N149:N152"/>
     <mergeCell ref="M151:M152"/>
@@ -11569,6 +11906,7 @@
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="C146:C149"/>
     <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C116:C119"/>
     <mergeCell ref="C132:C135"/>
     <mergeCell ref="B134:B135"/>
     <mergeCell ref="M105:M106"/>
@@ -11584,19 +11922,13 @@
     <mergeCell ref="M115:M116"/>
     <mergeCell ref="M117:M118"/>
     <mergeCell ref="N117:N120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C116:C119"/>
     <mergeCell ref="M119:M120"/>
     <mergeCell ref="B132:B133"/>
+    <mergeCell ref="N121:N124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="N125:N128"/>
+    <mergeCell ref="M127:M128"/>
     <mergeCell ref="A132:A135"/>
     <mergeCell ref="L121:L128"/>
     <mergeCell ref="M121:M122"/>
@@ -11611,6 +11943,16 @@
     <mergeCell ref="A116:A119"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="B118:B119"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C110:C113"/>
     <mergeCell ref="A93:A96"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="B95:B96"/>
@@ -11638,6 +11980,10 @@
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="AH38:AH43"/>
     <mergeCell ref="AH44:AH49"/>
     <mergeCell ref="B31:B32"/>
@@ -11648,26 +11994,28 @@
     <mergeCell ref="AG41:AG43"/>
     <mergeCell ref="AG44:AG46"/>
     <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="BB42:BB44"/>
+    <mergeCell ref="BC42:BC47"/>
+    <mergeCell ref="BB45:BB47"/>
+    <mergeCell ref="BB36:BB38"/>
+    <mergeCell ref="BC36:BC41"/>
+    <mergeCell ref="BB39:BB41"/>
+    <mergeCell ref="AX96:AX97"/>
+    <mergeCell ref="AX98:AX99"/>
+    <mergeCell ref="AZ74:AZ76"/>
+    <mergeCell ref="BA74:BA79"/>
+    <mergeCell ref="AZ77:AZ79"/>
+    <mergeCell ref="AZ68:AZ70"/>
+    <mergeCell ref="BA68:BA73"/>
+    <mergeCell ref="AZ71:AZ73"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="AX96:AX97"/>
-    <mergeCell ref="AX98:AX99"/>
-    <mergeCell ref="AZ62:AZ64"/>
-    <mergeCell ref="BA62:BA67"/>
-    <mergeCell ref="AZ65:AZ67"/>
-    <mergeCell ref="AZ68:AZ70"/>
-    <mergeCell ref="BA68:BA73"/>
-    <mergeCell ref="AZ71:AZ73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
